--- a/DHL/Template/20230405_NEW SIR_GR_Greecev_v2.2.8.xlsx
+++ b/DHL/Template/20230405_NEW SIR_GR_Greecev_v2.2.8.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dpdhl-my.sharepoint.com/personal/jan_pastor_dhl_com/Documents/DCE TEAM/GCCP/GR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DHL-Master\Git-Master\TestJavaProject\DHL\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA0A81A5-D670-4E6A-83A8-3B3804432DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="SIR" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">SIR!$A$1:$V$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">SIR!$A$1:$Z$51</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="1249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2360" uniqueCount="1267">
   <si>
     <t>Sl. No.</t>
   </si>
@@ -4808,12 +4807,66 @@
   <si>
     <t>Παρακαλώ επισυνάψτε το πιστοποιητικό καταλληλότητας (CE Certificate of Comformity) που απαιτείται για τον εκτελωνισμό αν αυτό προβλέπεται για το είδος που εισάγετε</t>
   </si>
+  <si>
+    <t>SIR Component Name</t>
+  </si>
+  <si>
+    <t>Attribute Component Name 1</t>
+  </si>
+  <si>
+    <t>Attribute Component Name 2</t>
+  </si>
+  <si>
+    <t>SIR Name</t>
+  </si>
+  <si>
+    <t>RetExport</t>
+  </si>
+  <si>
+    <t>RetrnShip</t>
+  </si>
+  <si>
+    <t>RepairType</t>
+  </si>
+  <si>
+    <t>ExpInvImg</t>
+  </si>
+  <si>
+    <t>ExpAWBImg</t>
+  </si>
+  <si>
+    <t>ShipmentDHL</t>
+  </si>
+  <si>
+    <t>ExpDeclarImg</t>
+  </si>
+  <si>
+    <t>InvUploader</t>
+  </si>
+  <si>
+    <t>ReturnText</t>
+  </si>
+  <si>
+    <t>POI</t>
+  </si>
+  <si>
+    <t>ShipCostBtn</t>
+  </si>
+  <si>
+    <t>PORadioBtn</t>
+  </si>
+  <si>
+    <t>EORINum</t>
+  </si>
+  <si>
+    <t>GreekNum</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5266,7 +5319,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5661,6 +5714,9 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5709,11 +5765,23 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -5727,17 +5795,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5968,13 +6036,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>4</xdr:col>
+          <xdr:col>8</xdr:col>
           <xdr:colOff>314325</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
+          <xdr:col>8</xdr:col>
           <xdr:colOff>2200275</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>600075</xdr:rowOff>
@@ -6019,50 +6087,6 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>211353</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>96340</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2963333" y="33983083"/>
-          <a:ext cx="12917703" cy="7811590"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6328,21 +6352,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="40.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="40.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -6351,7 +6375,7 @@
       </c>
       <c r="C1" s="35"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="36">
         <v>1</v>
       </c>
@@ -6360,7 +6384,7 @@
       </c>
       <c r="C2" s="36"/>
     </row>
-    <row r="3" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="120">
       <c r="A3" s="36">
         <v>2</v>
       </c>
@@ -6371,7 +6395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="36">
         <v>3</v>
       </c>
@@ -6380,7 +6404,7 @@
       </c>
       <c r="C4" s="24"/>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="30">
       <c r="A5" s="36">
         <v>4</v>
       </c>
@@ -6389,7 +6413,7 @@
       </c>
       <c r="C5" s="24"/>
     </row>
-    <row r="6" spans="1:3" ht="270" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="270">
       <c r="A6" s="36">
         <v>5</v>
       </c>
@@ -6398,7 +6422,7 @@
       </c>
       <c r="C6" s="36"/>
     </row>
-    <row r="7" spans="1:3" ht="240" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="240">
       <c r="A7" s="36">
         <v>6</v>
       </c>
@@ -6407,7 +6431,7 @@
       </c>
       <c r="C7" s="36"/>
     </row>
-    <row r="8" spans="1:3" ht="270" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="270">
       <c r="A8" s="37">
         <v>7</v>
       </c>
@@ -6421,14 +6445,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N73"/>
   <sheetViews>
     <sheetView topLeftCell="J42" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="53" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="53" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
@@ -6445,11 +6469,11 @@
     <col min="13" max="13" width="52.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="139" t="s">
+      <c r="B1" s="140" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="9"/>
@@ -6457,16 +6481,16 @@
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
-      <c r="H1" s="140" t="s">
+      <c r="H1" s="141" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="141" t="s">
+      <c r="I1" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="141" t="s">
+      <c r="J1" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="138" t="s">
+      <c r="K1" s="139" t="s">
         <v>14</v>
       </c>
       <c r="L1" s="23"/>
@@ -6477,9 +6501,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="139"/>
-      <c r="B2" s="139"/>
+    <row r="2" spans="1:14" ht="45">
+      <c r="A2" s="140"/>
+      <c r="B2" s="140"/>
       <c r="C2" s="9" t="s">
         <v>16</v>
       </c>
@@ -6495,10 +6519,10 @@
       <c r="G2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="139"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="138"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="139"/>
       <c r="L2" s="23" t="s">
         <v>21</v>
       </c>
@@ -6509,7 +6533,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="19">
         <v>1</v>
       </c>
@@ -6543,7 +6567,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="30">
       <c r="A4" s="19">
         <v>2</v>
       </c>
@@ -6577,7 +6601,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="30">
       <c r="A5" s="19">
         <v>3</v>
       </c>
@@ -6613,7 +6637,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="30">
       <c r="A6" s="19">
         <v>4</v>
       </c>
@@ -6649,7 +6673,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="45">
       <c r="A7" s="19">
         <v>5</v>
       </c>
@@ -6685,7 +6709,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="45">
       <c r="A8" s="19">
         <v>6</v>
       </c>
@@ -6721,7 +6745,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="30">
       <c r="A9" s="19">
         <v>7</v>
       </c>
@@ -6755,7 +6779,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="30">
       <c r="A10" s="19">
         <v>8</v>
       </c>
@@ -6791,7 +6815,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="30">
       <c r="A11" s="19">
         <v>9</v>
       </c>
@@ -6827,7 +6851,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="30">
       <c r="A12" s="19">
         <v>10</v>
       </c>
@@ -6863,7 +6887,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="30">
       <c r="A13" s="19">
         <v>11</v>
       </c>
@@ -6897,7 +6921,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="30">
       <c r="A14" s="19">
         <v>12</v>
       </c>
@@ -6933,7 +6957,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" s="19">
         <v>13</v>
       </c>
@@ -6969,7 +6993,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="30">
       <c r="A16" s="19">
         <v>14</v>
       </c>
@@ -7003,7 +7027,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="30">
       <c r="A17" s="19">
         <v>15</v>
       </c>
@@ -7039,7 +7063,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="30">
       <c r="A18" s="19">
         <v>16</v>
       </c>
@@ -7073,7 +7097,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="30">
       <c r="A19" s="19">
         <v>17</v>
       </c>
@@ -7109,7 +7133,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="30">
       <c r="A20" s="19">
         <v>18</v>
       </c>
@@ -7145,7 +7169,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="30">
       <c r="A21" s="19">
         <v>19</v>
       </c>
@@ -7181,7 +7205,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="45">
       <c r="A22" s="19">
         <v>20</v>
       </c>
@@ -7217,7 +7241,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="30">
       <c r="A23" s="19">
         <v>21</v>
       </c>
@@ -7253,7 +7277,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="30">
       <c r="A24" s="19">
         <v>22</v>
       </c>
@@ -7289,7 +7313,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="30">
       <c r="A25" s="19">
         <v>23</v>
       </c>
@@ -7323,7 +7347,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="30">
       <c r="A26" s="19">
         <v>24</v>
       </c>
@@ -7357,7 +7381,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" s="19">
         <v>25</v>
       </c>
@@ -7391,7 +7415,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="30">
       <c r="A28" s="19">
         <v>26</v>
       </c>
@@ -7429,7 +7453,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="45">
       <c r="A29" s="19">
         <v>27</v>
       </c>
@@ -7467,7 +7491,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="30">
       <c r="A30" s="19">
         <v>28</v>
       </c>
@@ -7505,7 +7529,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="75">
       <c r="A31" s="19">
         <v>29</v>
       </c>
@@ -7545,7 +7569,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="30">
       <c r="A32" s="19">
         <v>30</v>
       </c>
@@ -7583,7 +7607,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14">
       <c r="A33" s="19">
         <v>31</v>
       </c>
@@ -7619,7 +7643,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14">
       <c r="A34" s="19">
         <v>32</v>
       </c>
@@ -7655,7 +7679,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14">
       <c r="A35" s="19">
         <v>33</v>
       </c>
@@ -7693,7 +7717,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14">
       <c r="A36" s="19">
         <v>34</v>
       </c>
@@ -7731,7 +7755,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="30">
       <c r="A37" s="19">
         <v>35</v>
       </c>
@@ -7769,7 +7793,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="30">
       <c r="A38" s="19">
         <v>36</v>
       </c>
@@ -7805,7 +7829,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="45">
       <c r="A39" s="19">
         <v>37</v>
       </c>
@@ -7841,7 +7865,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="30">
       <c r="A40" s="19">
         <v>38</v>
       </c>
@@ -7875,7 +7899,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="30">
       <c r="A41" s="19">
         <v>39</v>
       </c>
@@ -7909,7 +7933,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="30">
       <c r="A42" s="19">
         <v>40</v>
       </c>
@@ -7943,7 +7967,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="30">
       <c r="A43" s="19">
         <v>41</v>
       </c>
@@ -7977,7 +8001,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="45">
       <c r="A44" s="19">
         <v>42</v>
       </c>
@@ -8011,7 +8035,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14">
       <c r="A45" s="19">
         <v>43</v>
       </c>
@@ -8045,7 +8069,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14">
       <c r="A46" s="19">
         <v>44</v>
       </c>
@@ -8079,7 +8103,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="30">
       <c r="A47" s="19">
         <v>45</v>
       </c>
@@ -8113,7 +8137,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="45">
       <c r="A48" s="19">
         <v>46</v>
       </c>
@@ -8147,7 +8171,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="45">
       <c r="A49" s="19">
         <v>47</v>
       </c>
@@ -8181,7 +8205,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="45">
       <c r="A50" s="19">
         <v>48</v>
       </c>
@@ -8215,7 +8239,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="45">
       <c r="A51" s="19">
         <v>49</v>
       </c>
@@ -8249,7 +8273,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="30">
       <c r="A52" s="19">
         <v>50</v>
       </c>
@@ -8283,7 +8307,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="45">
       <c r="A53" s="19">
         <v>51</v>
       </c>
@@ -8317,7 +8341,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="30">
       <c r="A54" s="19">
         <v>52</v>
       </c>
@@ -8351,7 +8375,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="30">
       <c r="A55" s="19">
         <v>53</v>
       </c>
@@ -8385,7 +8409,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14">
       <c r="A56" s="19">
         <v>54</v>
       </c>
@@ -8419,7 +8443,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" ht="30">
       <c r="A57" s="19">
         <v>55</v>
       </c>
@@ -8453,7 +8477,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="30">
       <c r="A58" s="19">
         <v>56</v>
       </c>
@@ -8487,7 +8511,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" ht="30">
       <c r="A59" s="19">
         <v>57</v>
       </c>
@@ -8521,7 +8545,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" ht="30">
       <c r="A60" s="19">
         <v>58</v>
       </c>
@@ -8555,7 +8579,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" ht="30">
       <c r="A61" s="19">
         <v>59</v>
       </c>
@@ -8589,7 +8613,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" ht="30">
       <c r="A62" s="19">
         <v>60</v>
       </c>
@@ -8623,7 +8647,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" ht="30">
       <c r="A63" s="19">
         <v>61</v>
       </c>
@@ -8657,7 +8681,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14">
       <c r="A64" s="19">
         <v>62</v>
       </c>
@@ -8691,7 +8715,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14">
       <c r="A65" s="19">
         <v>63</v>
       </c>
@@ -8725,7 +8749,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14">
       <c r="A66" s="19">
         <v>64</v>
       </c>
@@ -8759,7 +8783,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14">
       <c r="A67" s="19">
         <v>65</v>
       </c>
@@ -8793,7 +8817,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" ht="30">
       <c r="A68" s="19">
         <v>66</v>
       </c>
@@ -8829,7 +8853,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" ht="45">
       <c r="A69" s="19">
         <v>67</v>
       </c>
@@ -8865,7 +8889,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" ht="30">
       <c r="A70" s="19">
         <v>68</v>
       </c>
@@ -8901,7 +8925,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" ht="60">
       <c r="A71" s="19">
         <v>69</v>
       </c>
@@ -8937,7 +8961,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" ht="45">
       <c r="A72" s="19">
         <v>70</v>
       </c>
@@ -8973,7 +8997,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" ht="60">
       <c r="A73" s="19">
         <v>71</v>
       </c>
@@ -9023,14 +9047,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N140"/>
   <sheetViews>
     <sheetView topLeftCell="K17" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="60.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="60.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
@@ -9047,27 +9071,27 @@
     <col min="13" max="13" width="59.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="45">
       <c r="A1" s="5"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
       <c r="G1" s="6"/>
       <c r="H1" s="7" t="s">
         <v>345</v>
       </c>
       <c r="I1" s="8"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
-      <c r="L1" s="145"/>
-      <c r="M1" s="145"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="146" t="s">
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="146"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="147" t="s">
         <v>346</v>
       </c>
-      <c r="B2" s="146" t="s">
+      <c r="B2" s="147" t="s">
         <v>347</v>
       </c>
       <c r="C2" s="9"/>
@@ -9075,16 +9099,16 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="149" t="s">
         <v>348</v>
       </c>
-      <c r="I2" s="148" t="s">
+      <c r="I2" s="149" t="s">
         <v>349</v>
       </c>
-      <c r="J2" s="150" t="s">
+      <c r="J2" s="151" t="s">
         <v>350</v>
       </c>
-      <c r="K2" s="152" t="s">
+      <c r="K2" s="153" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="10"/>
@@ -9095,9 +9119,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="147"/>
-      <c r="B3" s="147"/>
+    <row r="3" spans="1:14" ht="45">
+      <c r="A3" s="148"/>
+      <c r="B3" s="148"/>
       <c r="C3" s="9" t="s">
         <v>351</v>
       </c>
@@ -9113,10 +9137,10 @@
       <c r="G3" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="153"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="154"/>
       <c r="L3" s="10" t="s">
         <v>356</v>
       </c>
@@ -9127,25 +9151,25 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="142" t="s">
+    <row r="4" spans="1:14">
+      <c r="A4" s="143" t="s">
         <v>357</v>
       </c>
-      <c r="B4" s="143"/>
-      <c r="C4" s="143"/>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="143"/>
-      <c r="I4" s="143"/>
-      <c r="J4" s="143"/>
-      <c r="K4" s="143"/>
-      <c r="L4" s="143"/>
-      <c r="M4" s="144"/>
+      <c r="B4" s="144"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="144"/>
+      <c r="J4" s="144"/>
+      <c r="K4" s="144"/>
+      <c r="L4" s="144"/>
+      <c r="M4" s="145"/>
       <c r="N4" s="56"/>
     </row>
-    <row r="5" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="29.1" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>358</v>
       </c>
@@ -9181,7 +9205,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="29.1" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>358</v>
       </c>
@@ -9219,7 +9243,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="116.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="116.1" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>358</v>
       </c>
@@ -9257,7 +9281,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="29.1" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>358</v>
       </c>
@@ -9295,7 +9319,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="14.45" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>358</v>
       </c>
@@ -9333,7 +9357,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="14.45" customHeight="1">
       <c r="A10" s="11" t="s">
         <v>358</v>
       </c>
@@ -9371,7 +9395,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="14.45" customHeight="1">
       <c r="A11" s="11" t="s">
         <v>358</v>
       </c>
@@ -9409,7 +9433,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="14.45" customHeight="1">
       <c r="A12" s="11" t="s">
         <v>358</v>
       </c>
@@ -9447,7 +9471,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="14.45" customHeight="1">
       <c r="A13" s="11" t="s">
         <v>407</v>
       </c>
@@ -9485,7 +9509,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="14.45" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>407</v>
       </c>
@@ -9523,7 +9547,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="87" customHeight="1">
       <c r="A15" s="11" t="s">
         <v>358</v>
       </c>
@@ -9561,7 +9585,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="29.1" customHeight="1">
       <c r="A16" s="11" t="s">
         <v>358</v>
       </c>
@@ -9597,7 +9621,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="14.45" customHeight="1">
       <c r="A17" s="11" t="s">
         <v>358</v>
       </c>
@@ -9633,7 +9657,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="14.45" customHeight="1">
       <c r="A18" s="11" t="s">
         <v>358</v>
       </c>
@@ -9671,7 +9695,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="29.1" customHeight="1">
       <c r="A19" s="11" t="s">
         <v>358</v>
       </c>
@@ -9709,7 +9733,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="29.1" customHeight="1">
       <c r="A20" s="11" t="s">
         <v>358</v>
       </c>
@@ -9749,7 +9773,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="67.5" customHeight="1">
       <c r="A21" s="19" t="s">
         <v>358</v>
       </c>
@@ -9791,7 +9815,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="29.1" customHeight="1">
       <c r="A22" s="11" t="s">
         <v>358</v>
       </c>
@@ -9831,7 +9855,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="72.599999999999994" customHeight="1">
       <c r="A23" s="11" t="s">
         <v>358</v>
       </c>
@@ -9873,7 +9897,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="29.1" customHeight="1">
       <c r="A24" s="19" t="s">
         <v>468</v>
       </c>
@@ -9917,7 +9941,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="89.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="89.45" customHeight="1">
       <c r="A25" s="19" t="s">
         <v>468</v>
       </c>
@@ -9961,7 +9985,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="14.45" customHeight="1">
       <c r="A26" s="11" t="s">
         <v>358</v>
       </c>
@@ -9997,7 +10021,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="72.599999999999994" customHeight="1">
       <c r="A27" s="11" t="s">
         <v>358</v>
       </c>
@@ -10033,7 +10057,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="29.1" customHeight="1">
       <c r="A28" s="11" t="s">
         <v>358</v>
       </c>
@@ -10069,7 +10093,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="29.1" customHeight="1">
       <c r="A29" s="11" t="s">
         <v>358</v>
       </c>
@@ -10105,7 +10129,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="57.95" customHeight="1">
       <c r="A30" s="11" t="s">
         <v>358</v>
       </c>
@@ -10141,7 +10165,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="14.45" customHeight="1">
       <c r="A31" s="11" t="s">
         <v>358</v>
       </c>
@@ -10177,7 +10201,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="43.5" customHeight="1">
       <c r="A32" s="11" t="s">
         <v>358</v>
       </c>
@@ -10213,7 +10237,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="34.5" customHeight="1">
       <c r="A33" s="11" t="s">
         <v>358</v>
       </c>
@@ -10249,7 +10273,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="29.1" customHeight="1">
       <c r="A34" s="11" t="s">
         <v>518</v>
       </c>
@@ -10287,7 +10311,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="43.5" customHeight="1">
       <c r="A35" s="11" t="s">
         <v>518</v>
       </c>
@@ -10325,7 +10349,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="101.45" customHeight="1">
       <c r="A36" s="11" t="s">
         <v>518</v>
       </c>
@@ -10363,7 +10387,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="29.1" customHeight="1">
       <c r="A37" s="11" t="s">
         <v>518</v>
       </c>
@@ -10401,7 +10425,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="14.45" customHeight="1">
       <c r="A38" s="11" t="s">
         <v>518</v>
       </c>
@@ -10439,7 +10463,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="14.45" customHeight="1">
       <c r="A39" s="11" t="s">
         <v>518</v>
       </c>
@@ -10477,7 +10501,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="14.45" customHeight="1">
       <c r="A40" s="11" t="s">
         <v>518</v>
       </c>
@@ -10515,7 +10539,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="14.45" customHeight="1">
       <c r="A41" s="11" t="s">
         <v>518</v>
       </c>
@@ -10553,7 +10577,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="14.45" customHeight="1">
       <c r="A42" s="11" t="s">
         <v>518</v>
       </c>
@@ -10591,7 +10615,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="14.45" customHeight="1">
       <c r="A43" s="11" t="s">
         <v>518</v>
       </c>
@@ -10631,7 +10655,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="14.45" customHeight="1">
       <c r="A44" s="11" t="s">
         <v>518</v>
       </c>
@@ -10671,7 +10695,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="14.45" customHeight="1">
       <c r="A45" s="11" t="s">
         <v>518</v>
       </c>
@@ -10711,7 +10735,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="29.1" customHeight="1">
       <c r="A46" s="11" t="s">
         <v>518</v>
       </c>
@@ -10751,7 +10775,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="43.5" customHeight="1">
       <c r="A47" s="11" t="s">
         <v>518</v>
       </c>
@@ -10791,7 +10815,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="14.45" customHeight="1">
       <c r="A48" s="11" t="s">
         <v>518</v>
       </c>
@@ -10827,7 +10851,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="29.1" customHeight="1">
       <c r="A49" s="11" t="s">
         <v>518</v>
       </c>
@@ -10863,7 +10887,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="43.5" customHeight="1">
       <c r="A50" s="11" t="s">
         <v>596</v>
       </c>
@@ -10903,7 +10927,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="43.5" customHeight="1">
       <c r="A51" s="11" t="s">
         <v>407</v>
       </c>
@@ -10943,7 +10967,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="14.45" customHeight="1">
       <c r="A52" s="11" t="s">
         <v>407</v>
       </c>
@@ -10983,7 +11007,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="29.1" customHeight="1">
       <c r="A53" s="11" t="s">
         <v>612</v>
       </c>
@@ -11023,7 +11047,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="87" customHeight="1">
       <c r="A54" s="11" t="s">
         <v>612</v>
       </c>
@@ -11063,7 +11087,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="57.95" customHeight="1">
       <c r="A55" s="11" t="s">
         <v>596</v>
       </c>
@@ -11103,7 +11127,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="29.1" customHeight="1">
       <c r="A56" s="11" t="s">
         <v>596</v>
       </c>
@@ -11143,7 +11167,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" ht="29.1" customHeight="1">
       <c r="A57" s="11" t="s">
         <v>596</v>
       </c>
@@ -11183,7 +11207,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="29.1" customHeight="1">
       <c r="A58" s="11" t="s">
         <v>596</v>
       </c>
@@ -11221,7 +11245,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" ht="29.1" customHeight="1">
       <c r="A59" s="11" t="s">
         <v>596</v>
       </c>
@@ -11259,7 +11283,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" ht="29.1" customHeight="1">
       <c r="A60" s="11" t="s">
         <v>596</v>
       </c>
@@ -11297,7 +11321,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" ht="29.1" customHeight="1">
       <c r="A61" s="11" t="s">
         <v>407</v>
       </c>
@@ -11335,7 +11359,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" ht="29.1" customHeight="1">
       <c r="A62" s="11" t="s">
         <v>596</v>
       </c>
@@ -11373,7 +11397,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" ht="29.1" customHeight="1">
       <c r="A63" s="11" t="s">
         <v>596</v>
       </c>
@@ -11411,7 +11435,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" ht="29.1" customHeight="1">
       <c r="A64" s="11" t="s">
         <v>596</v>
       </c>
@@ -11449,7 +11473,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="174" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" ht="174" customHeight="1">
       <c r="A65" s="11" t="s">
         <v>596</v>
       </c>
@@ -11487,7 +11511,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" ht="14.45" customHeight="1">
       <c r="A66" s="11" t="s">
         <v>676</v>
       </c>
@@ -11525,7 +11549,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" ht="14.45" customHeight="1">
       <c r="A67" s="11" t="s">
         <v>676</v>
       </c>
@@ -11563,7 +11587,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" ht="14.45" customHeight="1">
       <c r="A68" s="11" t="s">
         <v>676</v>
       </c>
@@ -11601,7 +11625,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" ht="14.45" customHeight="1">
       <c r="A69" s="11" t="s">
         <v>676</v>
       </c>
@@ -11639,7 +11663,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" ht="14.45" customHeight="1">
       <c r="A70" s="11" t="s">
         <v>676</v>
       </c>
@@ -11677,7 +11701,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" ht="14.45" customHeight="1">
       <c r="A71" s="11" t="s">
         <v>676</v>
       </c>
@@ -11715,7 +11739,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" ht="29.1" customHeight="1">
       <c r="A72" s="11" t="s">
         <v>700</v>
       </c>
@@ -11751,7 +11775,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" ht="87" customHeight="1">
       <c r="A73" s="11" t="s">
         <v>700</v>
       </c>
@@ -11787,7 +11811,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="231.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" ht="231.95" customHeight="1">
       <c r="A74" s="11" t="s">
         <v>700</v>
       </c>
@@ -11823,7 +11847,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" ht="72.599999999999994" customHeight="1">
       <c r="A75" s="11" t="s">
         <v>700</v>
       </c>
@@ -11859,7 +11883,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" ht="43.5" customHeight="1">
       <c r="A76" s="11" t="s">
         <v>407</v>
       </c>
@@ -11895,7 +11919,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" ht="43.5" customHeight="1">
       <c r="A77" s="11" t="s">
         <v>407</v>
       </c>
@@ -11931,7 +11955,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" ht="14.45" customHeight="1">
       <c r="A78" s="11" t="s">
         <v>700</v>
       </c>
@@ -11969,7 +11993,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" ht="57.95" customHeight="1">
       <c r="A79" s="11" t="s">
         <v>700</v>
       </c>
@@ -12007,7 +12031,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" ht="29.1" customHeight="1">
       <c r="A80" s="19" t="s">
         <v>518</v>
       </c>
@@ -12045,7 +12069,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" ht="29.1" customHeight="1">
       <c r="A81" s="19" t="s">
         <v>518</v>
       </c>
@@ -12083,7 +12107,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" ht="57.95" customHeight="1">
       <c r="A82" s="19" t="s">
         <v>596</v>
       </c>
@@ -12121,7 +12145,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" ht="43.5" customHeight="1">
       <c r="A83" s="19" t="s">
         <v>596</v>
       </c>
@@ -12161,7 +12185,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" ht="43.5" customHeight="1">
       <c r="A84" s="19" t="s">
         <v>596</v>
       </c>
@@ -12201,7 +12225,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" ht="43.5" customHeight="1">
       <c r="A85" s="19" t="s">
         <v>596</v>
       </c>
@@ -12241,7 +12265,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" ht="43.5" customHeight="1">
       <c r="A86" s="19" t="s">
         <v>768</v>
       </c>
@@ -12281,7 +12305,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" ht="57.95" customHeight="1">
       <c r="A87" s="19" t="s">
         <v>768</v>
       </c>
@@ -12323,7 +12347,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" ht="57.95" customHeight="1">
       <c r="A88" s="19" t="s">
         <v>768</v>
       </c>
@@ -12363,7 +12387,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" ht="29.1" customHeight="1">
       <c r="A89" s="11" t="s">
         <v>407</v>
       </c>
@@ -12403,7 +12427,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" ht="43.5" customHeight="1">
       <c r="A90" s="11" t="s">
         <v>407</v>
       </c>
@@ -12443,7 +12467,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" ht="14.45" customHeight="1">
       <c r="A91" s="19" t="s">
         <v>768</v>
       </c>
@@ -12479,7 +12503,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" ht="14.45" customHeight="1">
       <c r="A92" s="19" t="s">
         <v>768</v>
       </c>
@@ -12515,7 +12539,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="116.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" ht="116.1" customHeight="1">
       <c r="A93" s="19" t="s">
         <v>768</v>
       </c>
@@ -12551,7 +12575,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" ht="29.1" customHeight="1">
       <c r="A94" s="19" t="s">
         <v>768</v>
       </c>
@@ -12587,7 +12611,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" ht="29.1" customHeight="1">
       <c r="A95" s="19" t="s">
         <v>768</v>
       </c>
@@ -12623,7 +12647,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" ht="29.1" customHeight="1">
       <c r="A96" s="19" t="s">
         <v>768</v>
       </c>
@@ -12659,7 +12683,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" ht="14.45" customHeight="1">
       <c r="A97" s="11" t="s">
         <v>813</v>
       </c>
@@ -12695,7 +12719,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" ht="29.1" customHeight="1">
       <c r="A98" s="11" t="s">
         <v>358</v>
       </c>
@@ -12733,7 +12757,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" ht="14.45" customHeight="1">
       <c r="A99" s="11" t="s">
         <v>358</v>
       </c>
@@ -12771,7 +12795,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" ht="14.45" customHeight="1">
       <c r="A100" s="11" t="s">
         <v>829</v>
       </c>
@@ -12809,7 +12833,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" ht="57.95" customHeight="1">
       <c r="A101" s="11" t="s">
         <v>829</v>
       </c>
@@ -12847,7 +12871,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" ht="14.45" customHeight="1">
       <c r="A102" s="11" t="s">
         <v>829</v>
       </c>
@@ -12885,7 +12909,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" ht="14.45" customHeight="1">
       <c r="A103" s="11" t="s">
         <v>829</v>
       </c>
@@ -12923,7 +12947,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" ht="57.95" customHeight="1">
       <c r="A104" s="11" t="s">
         <v>676</v>
       </c>
@@ -12959,7 +12983,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" ht="29.1" customHeight="1">
       <c r="A105" s="11" t="s">
         <v>676</v>
       </c>
@@ -12995,7 +13019,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" ht="29.1" customHeight="1">
       <c r="A106" s="11" t="s">
         <v>700</v>
       </c>
@@ -13031,7 +13055,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" ht="43.5" customHeight="1">
       <c r="A107" s="11" t="s">
         <v>700</v>
       </c>
@@ -13067,7 +13091,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" ht="29.1" customHeight="1">
       <c r="A108" s="11" t="s">
         <v>700</v>
       </c>
@@ -13103,7 +13127,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" ht="29.1" customHeight="1">
       <c r="A109" s="11" t="s">
         <v>700</v>
       </c>
@@ -13141,7 +13165,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" ht="57.95" customHeight="1">
       <c r="A110" s="11" t="s">
         <v>700</v>
       </c>
@@ -13179,7 +13203,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="111" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" ht="14.45" customHeight="1">
       <c r="A111" s="11" t="s">
         <v>700</v>
       </c>
@@ -13217,7 +13241,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" ht="29.1" customHeight="1">
       <c r="A112" s="11" t="s">
         <v>889</v>
       </c>
@@ -13255,7 +13279,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" ht="14.45" customHeight="1">
       <c r="A113" s="11" t="s">
         <v>889</v>
       </c>
@@ -13293,7 +13317,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" ht="29.1" customHeight="1">
       <c r="A114" s="11" t="s">
         <v>889</v>
       </c>
@@ -13331,7 +13355,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" ht="29.1" customHeight="1">
       <c r="A115" s="11" t="s">
         <v>889</v>
       </c>
@@ -13369,7 +13393,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" ht="57.95" customHeight="1">
       <c r="A116" s="11" t="s">
         <v>889</v>
       </c>
@@ -13407,7 +13431,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="117" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" ht="29.1" customHeight="1">
       <c r="A117" s="11" t="s">
         <v>889</v>
       </c>
@@ -13445,7 +13469,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="118" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" ht="43.5" customHeight="1">
       <c r="A118" s="11" t="s">
         <v>889</v>
       </c>
@@ -13483,7 +13507,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" ht="43.5" customHeight="1">
       <c r="A119" s="11" t="s">
         <v>889</v>
       </c>
@@ -13521,7 +13545,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" ht="14.45" customHeight="1">
       <c r="A120" s="11" t="s">
         <v>889</v>
       </c>
@@ -13561,7 +13585,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" ht="14.45" customHeight="1">
       <c r="A121" s="11" t="s">
         <v>889</v>
       </c>
@@ -13601,7 +13625,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" ht="29.1" customHeight="1">
       <c r="A122" s="11" t="s">
         <v>596</v>
       </c>
@@ -13639,7 +13663,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="123" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" ht="29.1" customHeight="1">
       <c r="A123" s="11" t="s">
         <v>596</v>
       </c>
@@ -13677,7 +13701,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="124" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" ht="14.45" customHeight="1">
       <c r="A124" s="61" t="s">
         <v>958</v>
       </c>
@@ -13697,7 +13721,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="125" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" ht="29.1" customHeight="1">
       <c r="A125" s="11" t="s">
         <v>813</v>
       </c>
@@ -13735,7 +13759,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="126" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" ht="29.1" customHeight="1">
       <c r="A126" s="11" t="s">
         <v>813</v>
       </c>
@@ -13773,7 +13797,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="127" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" ht="29.1" customHeight="1">
       <c r="A127" s="11" t="s">
         <v>813</v>
       </c>
@@ -13813,7 +13837,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="128" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" ht="14.45" customHeight="1">
       <c r="A128" s="11" t="s">
         <v>813</v>
       </c>
@@ -13851,7 +13875,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="129" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" ht="14.45" customHeight="1">
       <c r="A129" s="11" t="s">
         <v>813</v>
       </c>
@@ -13889,7 +13913,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="130" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" ht="14.45" customHeight="1">
       <c r="A130" s="11" t="s">
         <v>813</v>
       </c>
@@ -13927,7 +13951,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="131" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" ht="29.1" customHeight="1">
       <c r="A131" s="11" t="s">
         <v>813</v>
       </c>
@@ -13965,7 +13989,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="132" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" ht="29.1" customHeight="1">
       <c r="A132" s="11" t="s">
         <v>813</v>
       </c>
@@ -14003,7 +14027,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="133" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" ht="29.1" customHeight="1">
       <c r="A133" s="11" t="s">
         <v>813</v>
       </c>
@@ -14039,7 +14063,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="134" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" ht="29.1" customHeight="1">
       <c r="A134" s="11" t="s">
         <v>813</v>
       </c>
@@ -14075,7 +14099,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="135" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" ht="29.1" customHeight="1">
       <c r="A135" s="11" t="s">
         <v>813</v>
       </c>
@@ -14111,7 +14135,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="136" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" ht="29.1" customHeight="1">
       <c r="A136" s="11" t="s">
         <v>813</v>
       </c>
@@ -14147,7 +14171,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="137" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" ht="29.1" customHeight="1">
       <c r="A137" s="11" t="s">
         <v>813</v>
       </c>
@@ -14183,7 +14207,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="138" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" ht="29.1" customHeight="1">
       <c r="A138" s="11" t="s">
         <v>813</v>
       </c>
@@ -14219,7 +14243,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="139" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" ht="29.1" customHeight="1">
       <c r="A139" s="11" t="s">
         <v>889</v>
       </c>
@@ -14259,7 +14283,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="140" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" ht="29.1" customHeight="1">
       <c r="A140" s="11" t="s">
         <v>889</v>
       </c>
@@ -14312,10 +14336,10 @@
     <mergeCell ref="K2:K3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J21" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="J23" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="M33" r:id="rId3" xr:uid="{DF8538CC-138A-4771-BE87-5B4D2C59904F}"/>
-    <hyperlink ref="N33" r:id="rId4" xr:uid="{9BD52DB9-42AF-4175-A9B3-C279E4FDD4C8}"/>
+    <hyperlink ref="J21" r:id="rId1"/>
+    <hyperlink ref="J23" r:id="rId2"/>
+    <hyperlink ref="M33" r:id="rId3"/>
+    <hyperlink ref="N33" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId5"/>
@@ -14351,386 +14375,430 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:V51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H2" sqref="H2"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E36" sqref="E36"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E22:E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="44.140625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="44.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="7.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" style="68" customWidth="1"/>
-    <col min="4" max="4" width="40.5703125" style="82" customWidth="1"/>
-    <col min="5" max="5" width="38.5703125" style="82" customWidth="1"/>
-    <col min="6" max="6" width="55" style="82" customWidth="1"/>
-    <col min="7" max="7" width="56.42578125" style="82" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" style="82" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.42578125" style="43" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.140625" style="82" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="43.85546875" style="1" customWidth="1"/>
-    <col min="17" max="18" width="25.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="34.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="44.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="44.140625" style="1"/>
+    <col min="3" max="7" width="24.5703125" style="68" customWidth="1"/>
+    <col min="8" max="8" width="40.5703125" style="82" customWidth="1"/>
+    <col min="9" max="9" width="38.5703125" style="82" customWidth="1"/>
+    <col min="10" max="10" width="55" style="82" customWidth="1"/>
+    <col min="11" max="11" width="56.42578125" style="82" customWidth="1"/>
+    <col min="12" max="12" width="22.5703125" style="82" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33.140625" style="82" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="43.85546875" style="1" customWidth="1"/>
+    <col min="21" max="22" width="25.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="34.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="44.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="44.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="51" customHeight="1">
       <c r="B1" s="64"/>
       <c r="C1" s="66"/>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="86" t="s">
         <v>1019</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="44"/>
+      <c r="I1" s="50"/>
       <c r="J1" s="69"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="69"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
-    </row>
-    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="160" t="s">
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+    </row>
+    <row r="2" spans="1:26" ht="15" customHeight="1">
+      <c r="A2" s="155" t="s">
         <v>1020</v>
       </c>
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="163" t="s">
         <v>1021</v>
       </c>
-      <c r="C2" s="159" t="s">
+      <c r="C2" s="164" t="s">
         <v>1022</v>
       </c>
-      <c r="D2" s="156" t="s">
+      <c r="D2" s="168" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E2" s="168" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F2" s="168" t="s">
+        <v>1251</v>
+      </c>
+      <c r="G2" s="168" t="s">
+        <v>1252</v>
+      </c>
+      <c r="H2" s="161" t="s">
         <v>1023</v>
       </c>
-      <c r="E2" s="156" t="s">
+      <c r="I2" s="161" t="s">
         <v>1024</v>
       </c>
-      <c r="F2" s="162" t="s">
+      <c r="J2" s="159" t="s">
         <v>1025</v>
       </c>
-      <c r="G2" s="162" t="s">
+      <c r="K2" s="159" t="s">
         <v>1026</v>
       </c>
-      <c r="H2" s="162" t="s">
+      <c r="L2" s="159" t="s">
         <v>1027</v>
       </c>
-      <c r="I2" s="162" t="s">
+      <c r="M2" s="159" t="s">
         <v>1028</v>
       </c>
-      <c r="J2" s="162" t="s">
+      <c r="N2" s="159" t="s">
         <v>1029</v>
       </c>
-      <c r="K2" s="154" t="s">
+      <c r="O2" s="157" t="s">
         <v>1030</v>
       </c>
-      <c r="L2" s="154" t="s">
+      <c r="P2" s="157" t="s">
         <v>1031</v>
       </c>
-      <c r="M2" s="154" t="s">
+      <c r="Q2" s="157" t="s">
         <v>1032</v>
       </c>
-      <c r="N2" s="162" t="s">
+      <c r="R2" s="159" t="s">
         <v>1033</v>
       </c>
-      <c r="O2" s="154" t="s">
+      <c r="S2" s="157" t="s">
         <v>1034</v>
       </c>
-      <c r="P2" s="154" t="s">
+      <c r="T2" s="157" t="s">
         <v>1035</v>
       </c>
-      <c r="Q2" s="154" t="s">
+      <c r="U2" s="157" t="s">
         <v>1036</v>
       </c>
-      <c r="R2" s="154" t="s">
+      <c r="V2" s="157" t="s">
         <v>1037</v>
       </c>
-      <c r="S2" s="154" t="s">
+      <c r="W2" s="157" t="s">
         <v>1038</v>
       </c>
-      <c r="T2" s="154" t="s">
+      <c r="X2" s="157" t="s">
         <v>1039</v>
       </c>
-      <c r="U2" s="154" t="s">
+      <c r="Y2" s="157" t="s">
         <v>1040</v>
       </c>
-      <c r="V2" s="154" t="s">
+      <c r="Z2" s="157" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="161"/>
-      <c r="B3" s="158"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="155"/>
-      <c r="M3" s="155"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="155"/>
-      <c r="P3" s="155"/>
-      <c r="Q3" s="155"/>
-      <c r="R3" s="155"/>
-      <c r="S3" s="155"/>
-      <c r="T3" s="155"/>
-      <c r="U3" s="155"/>
-      <c r="V3" s="155"/>
-    </row>
-    <row r="4" spans="1:22" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26">
+      <c r="A3" s="156"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="160"/>
+      <c r="N3" s="160"/>
+      <c r="O3" s="158"/>
+      <c r="P3" s="158"/>
+      <c r="Q3" s="158"/>
+      <c r="R3" s="160"/>
+      <c r="S3" s="158"/>
+      <c r="T3" s="158"/>
+      <c r="U3" s="158"/>
+      <c r="V3" s="158"/>
+      <c r="W3" s="158"/>
+      <c r="X3" s="158"/>
+      <c r="Y3" s="158"/>
+      <c r="Z3" s="158"/>
+    </row>
+    <row r="4" spans="1:26" ht="63.75">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="58"/>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="70" t="s">
         <v>1041</v>
       </c>
-      <c r="E4" s="70"/>
-      <c r="F4" s="71" t="s">
+      <c r="I4" s="70"/>
+      <c r="J4" s="71" t="s">
         <v>1042</v>
       </c>
-      <c r="G4" s="71"/>
-      <c r="H4" s="72" t="s">
+      <c r="K4" s="71"/>
+      <c r="L4" s="72" t="s">
         <v>1043</v>
       </c>
-      <c r="I4" s="42"/>
-      <c r="J4" s="72" t="s">
+      <c r="M4" s="42"/>
+      <c r="N4" s="72" t="s">
         <v>1044</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>1044</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>1045</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>1046</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>1047</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>1047</v>
       </c>
-      <c r="P4" s="47" t="s">
+      <c r="T4" s="47" t="s">
         <v>1048</v>
       </c>
-      <c r="Q4" s="47" t="s">
+      <c r="U4" s="47" t="s">
         <v>1049</v>
       </c>
-      <c r="R4" s="47" t="s">
+      <c r="V4" s="47" t="s">
         <v>1049</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>1050</v>
       </c>
-      <c r="T4" s="47" t="s">
+      <c r="X4" s="47" t="s">
         <v>1051</v>
       </c>
-      <c r="U4" s="47" t="s">
+      <c r="Y4" s="47" t="s">
         <v>1051</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="13.5" hidden="1" customHeight="1">
       <c r="B5" s="4"/>
       <c r="C5" s="58"/>
-      <c r="D5" s="87" t="s">
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="87" t="s">
         <v>470</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="I5" s="73" t="s">
         <v>1053</v>
       </c>
-      <c r="F5" s="71" t="s">
+      <c r="J5" s="71" t="s">
         <v>1054</v>
       </c>
-      <c r="G5" s="74" t="s">
+      <c r="K5" s="74" t="s">
         <v>1055</v>
       </c>
-      <c r="H5" s="72" t="s">
+      <c r="L5" s="72" t="s">
         <v>1056</v>
       </c>
-      <c r="I5" s="42"/>
-      <c r="J5" s="72" t="s">
+      <c r="M5" s="42"/>
+      <c r="N5" s="72" t="s">
         <v>1057</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3" t="s">
+      <c r="O5" s="3"/>
+      <c r="P5" s="3" t="s">
         <v>1058</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3" t="s">
+      <c r="R5" s="3"/>
+      <c r="S5" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="P5" s="3"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T5" s="3"/>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" s="108" t="s">
         <v>1059</v>
       </c>
       <c r="B6" s="41"/>
       <c r="C6" s="46"/>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="65" t="s">
         <v>1060</v>
       </c>
-      <c r="E6" s="75" t="s">
+      <c r="I6" s="75" t="s">
         <v>1061</v>
       </c>
-      <c r="F6" s="65"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="75"/>
       <c r="J6" s="65"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="65"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="75"/>
       <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
+      <c r="O6" s="95"/>
+      <c r="P6" s="100"/>
       <c r="Q6" s="65"/>
       <c r="R6" s="65"/>
       <c r="S6" s="65"/>
       <c r="T6" s="65"/>
       <c r="U6" s="65"/>
       <c r="V6" s="65"/>
-    </row>
-    <row r="7" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="W6" s="65"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="65"/>
+    </row>
+    <row r="7" spans="1:26" ht="60">
       <c r="A7" s="38"/>
       <c r="B7" s="38"/>
       <c r="C7" s="46" t="s">
         <v>1062</v>
       </c>
-      <c r="D7" s="78"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="78" t="s">
-        <v>1063</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>1064</v>
-      </c>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
       <c r="H7" s="78"/>
       <c r="I7" s="40"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="110" t="s">
+      <c r="J7" s="78" t="s">
+        <v>1063</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>1064</v>
+      </c>
+      <c r="L7" s="78"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="110" t="s">
         <v>1065</v>
       </c>
-      <c r="N7" s="63" t="s">
+      <c r="R7" s="63" t="s">
         <v>1066</v>
       </c>
-      <c r="O7" s="63" t="s">
+      <c r="S7" s="63" t="s">
         <v>1067</v>
       </c>
-      <c r="P7" s="59" t="s">
+      <c r="T7" s="59" t="s">
         <v>1068</v>
       </c>
-      <c r="Q7" s="40" t="s">
+      <c r="U7" s="40" t="s">
         <v>1069</v>
       </c>
-      <c r="R7" s="40" t="s">
+      <c r="V7" s="40" t="s">
         <v>1070</v>
       </c>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-    </row>
-    <row r="8" spans="1:22" ht="27" x14ac:dyDescent="0.25">
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="40"/>
+    </row>
+    <row r="8" spans="1:26" ht="25.5">
       <c r="A8" s="38"/>
       <c r="B8" s="38"/>
       <c r="C8" s="46" t="s">
         <v>1071</v>
       </c>
-      <c r="D8" s="78"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="78" t="s">
-        <v>1072</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>1073</v>
-      </c>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
       <c r="H8" s="78"/>
       <c r="I8" s="40"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="48" t="s">
+      <c r="J8" s="78" t="s">
+        <v>1072</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>1073</v>
+      </c>
+      <c r="L8" s="78"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="96"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="48" t="s">
         <v>1074</v>
       </c>
-      <c r="N8" s="53" t="s">
+      <c r="R8" s="53" t="s">
         <v>1075</v>
       </c>
-      <c r="O8" s="48" t="s">
+      <c r="S8" s="48" t="s">
         <v>1076</v>
       </c>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
+      <c r="T8" s="51"/>
       <c r="U8" s="40"/>
       <c r="V8" s="40"/>
-    </row>
-    <row r="9" spans="1:22" ht="121.5" x14ac:dyDescent="0.25">
+      <c r="W8" s="40"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="40"/>
+    </row>
+    <row r="9" spans="1:26" ht="127.5">
       <c r="A9" s="108" t="s">
         <v>1077</v>
       </c>
       <c r="B9" s="41"/>
       <c r="C9" s="46"/>
-      <c r="D9" s="65" t="s">
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="65" t="s">
         <v>1078</v>
       </c>
-      <c r="E9" s="75" t="s">
+      <c r="I9" s="75" t="s">
         <v>1079</v>
       </c>
-      <c r="F9" s="65" t="s">
+      <c r="J9" s="65" t="s">
         <v>1080</v>
       </c>
-      <c r="G9" s="65" t="s">
+      <c r="K9" s="65" t="s">
         <v>1081</v>
       </c>
-      <c r="H9" s="65"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="93"/>
       <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="76"/>
       <c r="Q9" s="65"/>
       <c r="R9" s="65"/>
       <c r="S9" s="65"/>
       <c r="T9" s="65"/>
       <c r="U9" s="65"/>
       <c r="V9" s="65"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W9" s="65"/>
+      <c r="X9" s="65"/>
+      <c r="Y9" s="65"/>
+      <c r="Z9" s="65"/>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" s="41"/>
       <c r="B10" s="41" t="s">
         <v>1082</v>
@@ -14738,131 +14806,147 @@
       <c r="C10" s="46" t="s">
         <v>1083</v>
       </c>
-      <c r="D10" s="77"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="77" t="s">
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="77" t="s">
         <v>1084</v>
       </c>
-      <c r="I10" s="79" t="s">
+      <c r="M10" s="79" t="s">
         <v>1085</v>
       </c>
-      <c r="J10" s="77"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="52"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="79"/>
+      <c r="Q10" s="54"/>
       <c r="R10" s="52"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S10" s="55"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="45"/>
+      <c r="Y10" s="45"/>
+      <c r="Z10" s="45"/>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" s="41" t="s">
         <v>1086</v>
       </c>
       <c r="B11" s="41"/>
       <c r="C11" s="46"/>
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="65" t="s">
         <v>1087</v>
       </c>
-      <c r="E11" s="93" t="s">
+      <c r="I11" s="93" t="s">
         <v>1088</v>
       </c>
-      <c r="F11" s="65"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="75"/>
       <c r="J11" s="65"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="65"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="75"/>
       <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="100"/>
       <c r="Q11" s="65"/>
       <c r="R11" s="65"/>
       <c r="S11" s="65"/>
       <c r="T11" s="65"/>
       <c r="U11" s="65"/>
       <c r="V11" s="65"/>
-    </row>
-    <row r="12" spans="1:22" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="W11" s="65"/>
+      <c r="X11" s="65"/>
+      <c r="Y11" s="65"/>
+      <c r="Z11" s="65"/>
+    </row>
+    <row r="12" spans="1:26" ht="76.5">
       <c r="A12" s="39"/>
       <c r="B12" s="39"/>
       <c r="C12" s="46" t="s">
         <v>1089</v>
       </c>
-      <c r="D12" s="77"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="77" t="s">
-        <v>1090</v>
-      </c>
-      <c r="G12" s="40" t="s">
-        <v>1091</v>
-      </c>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
       <c r="H12" s="77"/>
       <c r="I12" s="80"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
+      <c r="J12" s="77" t="s">
+        <v>1090</v>
+      </c>
+      <c r="K12" s="40" t="s">
+        <v>1091</v>
+      </c>
+      <c r="L12" s="77"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="85"/>
+      <c r="P12" s="80"/>
+      <c r="Q12" s="54"/>
       <c r="R12" s="52"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-    </row>
-    <row r="13" spans="1:22" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S12" s="55"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="45"/>
+      <c r="Z12" s="45"/>
+    </row>
+    <row r="13" spans="1:26" ht="49.5" customHeight="1">
       <c r="A13" s="39"/>
       <c r="B13" s="39"/>
       <c r="C13" s="46" t="s">
         <v>1092</v>
       </c>
-      <c r="D13" s="77"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="79" t="s">
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="79" t="s">
         <v>1093</v>
       </c>
-      <c r="G13" s="80" t="s">
+      <c r="K13" s="80" t="s">
         <v>1094</v>
       </c>
-      <c r="H13" s="114" t="s">
+      <c r="L13" s="114" t="s">
         <v>1095</v>
       </c>
-      <c r="I13" s="80" t="s">
+      <c r="M13" s="80" t="s">
         <v>1096</v>
       </c>
-      <c r="J13" s="77"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="116" t="s">
+      <c r="N13" s="77"/>
+      <c r="O13" s="85"/>
+      <c r="P13" s="80"/>
+      <c r="Q13" s="116" t="s">
         <v>1097</v>
       </c>
-      <c r="N13" s="115" t="s">
+      <c r="R13" s="115" t="s">
         <v>1098</v>
       </c>
-      <c r="O13" s="48" t="s">
+      <c r="S13" s="48" t="s">
         <v>1099</v>
       </c>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="45"/>
-    </row>
-    <row r="14" spans="1:22" ht="54" x14ac:dyDescent="0.25">
+      <c r="T13" s="52"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="45"/>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="45"/>
+    </row>
+    <row r="14" spans="1:26" ht="51">
       <c r="A14" s="39"/>
       <c r="B14" s="39" t="s">
         <v>1100</v>
@@ -14870,39 +14954,43 @@
       <c r="C14" s="46" t="s">
         <v>1101</v>
       </c>
-      <c r="D14" s="77" t="s">
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="77" t="s">
         <v>1102</v>
       </c>
-      <c r="E14" s="79" t="s">
+      <c r="I14" s="79" t="s">
         <v>1103</v>
       </c>
-      <c r="F14" s="77" t="s">
+      <c r="J14" s="77" t="s">
         <v>1104</v>
       </c>
-      <c r="G14" s="79" t="s">
+      <c r="K14" s="79" t="s">
         <v>1105</v>
       </c>
-      <c r="H14" s="77" t="s">
+      <c r="L14" s="77" t="s">
         <v>1084</v>
       </c>
-      <c r="I14" s="79" t="s">
+      <c r="M14" s="79" t="s">
         <v>1085</v>
       </c>
-      <c r="J14" s="77"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="79"/>
+      <c r="Q14" s="54"/>
       <c r="R14" s="52"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="45"/>
-    </row>
-    <row r="15" spans="1:22" ht="27" x14ac:dyDescent="0.25">
+      <c r="S14" s="55"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="45"/>
+      <c r="X14" s="45"/>
+      <c r="Y14" s="45"/>
+      <c r="Z14" s="45"/>
+    </row>
+    <row r="15" spans="1:26" ht="25.5">
       <c r="A15" s="39"/>
       <c r="B15" s="39" t="s">
         <v>1100</v>
@@ -14910,39 +14998,43 @@
       <c r="C15" s="46" t="s">
         <v>1106</v>
       </c>
-      <c r="D15" s="77" t="s">
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="77" t="s">
         <v>1107</v>
       </c>
-      <c r="E15" s="79" t="s">
+      <c r="I15" s="79" t="s">
         <v>1108</v>
       </c>
-      <c r="F15" s="77" t="s">
+      <c r="J15" s="77" t="s">
         <v>1109</v>
       </c>
-      <c r="G15" s="79" t="s">
+      <c r="K15" s="79" t="s">
         <v>1110</v>
       </c>
-      <c r="H15" s="77" t="s">
+      <c r="L15" s="77" t="s">
         <v>1084</v>
       </c>
-      <c r="I15" s="79" t="s">
+      <c r="M15" s="79" t="s">
         <v>1085</v>
       </c>
-      <c r="J15" s="77"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="79"/>
+      <c r="Q15" s="54"/>
       <c r="R15" s="52"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="45"/>
-    </row>
-    <row r="16" spans="1:22" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="S15" s="55"/>
+      <c r="T15" s="52"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="45"/>
+      <c r="X15" s="45"/>
+      <c r="Y15" s="45"/>
+      <c r="Z15" s="45"/>
+    </row>
+    <row r="16" spans="1:26" ht="63.75">
       <c r="A16" s="39"/>
       <c r="B16" s="39" t="s">
         <v>1100</v>
@@ -14950,39 +15042,43 @@
       <c r="C16" s="46" t="s">
         <v>1111</v>
       </c>
-      <c r="D16" s="77" t="s">
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="77" t="s">
         <v>1112</v>
       </c>
-      <c r="E16" s="79" t="s">
+      <c r="I16" s="79" t="s">
         <v>1113</v>
       </c>
-      <c r="F16" s="77" t="s">
+      <c r="J16" s="77" t="s">
         <v>1114</v>
       </c>
-      <c r="G16" s="79" t="s">
+      <c r="K16" s="79" t="s">
         <v>1115</v>
       </c>
-      <c r="H16" s="77" t="s">
+      <c r="L16" s="77" t="s">
         <v>1084</v>
       </c>
-      <c r="I16" s="79" t="s">
+      <c r="M16" s="79" t="s">
         <v>1085</v>
       </c>
-      <c r="J16" s="77"/>
-      <c r="K16" s="85"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="54"/>
       <c r="R16" s="52"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="45"/>
-    </row>
-    <row r="17" spans="1:22" ht="81" x14ac:dyDescent="0.25">
+      <c r="S16" s="55"/>
+      <c r="T16" s="52"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="45"/>
+      <c r="X16" s="45"/>
+      <c r="Y16" s="45"/>
+      <c r="Z16" s="45"/>
+    </row>
+    <row r="17" spans="1:26" ht="89.25">
       <c r="A17" s="39"/>
       <c r="B17" s="39" t="s">
         <v>1100</v>
@@ -14990,39 +15086,43 @@
       <c r="C17" s="46" t="s">
         <v>1111</v>
       </c>
-      <c r="D17" s="77" t="s">
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="77" t="s">
         <v>1116</v>
       </c>
-      <c r="E17" s="79" t="s">
+      <c r="I17" s="79" t="s">
         <v>1117</v>
       </c>
-      <c r="F17" s="77" t="s">
+      <c r="J17" s="77" t="s">
         <v>1118</v>
       </c>
-      <c r="G17" s="79" t="s">
+      <c r="K17" s="79" t="s">
         <v>1119</v>
       </c>
-      <c r="H17" s="77" t="s">
+      <c r="L17" s="77" t="s">
         <v>1084</v>
       </c>
-      <c r="I17" s="79" t="s">
+      <c r="M17" s="79" t="s">
         <v>1085</v>
       </c>
-      <c r="J17" s="77"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="54"/>
       <c r="R17" s="52"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="45"/>
-    </row>
-    <row r="18" spans="1:22" ht="27" x14ac:dyDescent="0.25">
+      <c r="S17" s="55"/>
+      <c r="T17" s="52"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="45"/>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="45"/>
+    </row>
+    <row r="18" spans="1:26" ht="25.5">
       <c r="A18" s="39"/>
       <c r="B18" s="39" t="s">
         <v>1100</v>
@@ -15030,441 +15130,521 @@
       <c r="C18" s="46" t="s">
         <v>1111</v>
       </c>
-      <c r="D18" s="77" t="s">
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="77" t="s">
         <v>1120</v>
       </c>
-      <c r="E18" s="79" t="s">
+      <c r="I18" s="79" t="s">
         <v>1121</v>
       </c>
-      <c r="F18" s="77" t="s">
+      <c r="J18" s="77" t="s">
         <v>1122</v>
       </c>
-      <c r="G18" s="79" t="s">
+      <c r="K18" s="79" t="s">
         <v>1123</v>
       </c>
-      <c r="H18" s="77" t="s">
+      <c r="L18" s="77" t="s">
         <v>1084</v>
       </c>
-      <c r="I18" s="79" t="s">
+      <c r="M18" s="79" t="s">
         <v>1085</v>
       </c>
-      <c r="J18" s="77"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="52"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="85"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="54"/>
       <c r="R18" s="52"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="45"/>
-      <c r="U18" s="45"/>
-      <c r="V18" s="45"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S18" s="55"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="45"/>
+      <c r="X18" s="45"/>
+      <c r="Y18" s="45"/>
+      <c r="Z18" s="45"/>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" s="108" t="s">
         <v>1124</v>
       </c>
       <c r="B19" s="41"/>
       <c r="C19" s="46"/>
-      <c r="D19" s="65" t="s">
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="65" t="s">
         <v>1125</v>
       </c>
-      <c r="E19" s="75" t="s">
+      <c r="I19" s="75" t="s">
         <v>1126</v>
       </c>
-      <c r="F19" s="65"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="75"/>
       <c r="J19" s="65"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="100"/>
-      <c r="M19" s="65"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="75"/>
       <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="100"/>
       <c r="Q19" s="65"/>
       <c r="R19" s="65"/>
       <c r="S19" s="65"/>
       <c r="T19" s="65"/>
       <c r="U19" s="65"/>
       <c r="V19" s="65"/>
-    </row>
-    <row r="20" spans="1:22" ht="165" x14ac:dyDescent="0.25">
+      <c r="W19" s="65"/>
+      <c r="X19" s="65"/>
+      <c r="Y19" s="65"/>
+      <c r="Z19" s="65"/>
+    </row>
+    <row r="20" spans="1:26" ht="165">
       <c r="A20" s="41"/>
       <c r="B20" s="41"/>
       <c r="C20" s="46" t="s">
         <v>1127</v>
       </c>
-      <c r="D20" s="88"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="88" t="s">
-        <v>1128</v>
-      </c>
-      <c r="G20" s="81" t="s">
-        <v>1129</v>
-      </c>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
       <c r="H20" s="88"/>
       <c r="I20" s="81"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="97"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="59" t="s">
+      <c r="J20" s="88" t="s">
+        <v>1128</v>
+      </c>
+      <c r="K20" s="81" t="s">
+        <v>1129</v>
+      </c>
+      <c r="L20" s="88"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="88"/>
+      <c r="O20" s="97"/>
+      <c r="P20" s="81"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="55"/>
+      <c r="T20" s="59" t="s">
         <v>1130</v>
       </c>
-      <c r="Q20" s="53" t="s">
+      <c r="U20" s="53" t="s">
         <v>1131</v>
       </c>
-      <c r="R20" s="53" t="s">
+      <c r="V20" s="53" t="s">
         <v>1132</v>
       </c>
-      <c r="S20" s="111" t="s">
+      <c r="W20" s="111" t="s">
         <v>1133</v>
       </c>
-      <c r="T20" s="113" t="s">
+      <c r="X20" s="113" t="s">
         <v>1069</v>
       </c>
-      <c r="U20" s="112" t="s">
+      <c r="Y20" s="112" t="s">
         <v>1070</v>
       </c>
-      <c r="V20" s="45"/>
-    </row>
-    <row r="21" spans="1:22" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="Z20" s="45"/>
+    </row>
+    <row r="21" spans="1:26" ht="38.25">
       <c r="A21" s="108" t="s">
         <v>1134</v>
       </c>
       <c r="B21" s="41"/>
       <c r="C21" s="46"/>
-      <c r="D21" s="65" t="s">
+      <c r="D21" s="46" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="65" t="s">
         <v>1135</v>
       </c>
-      <c r="E21" s="93" t="s">
+      <c r="I21" s="93" t="s">
         <v>1136</v>
       </c>
-      <c r="F21" s="65" t="s">
+      <c r="J21" s="65" t="s">
         <v>1137</v>
       </c>
-      <c r="G21" s="65" t="s">
+      <c r="K21" s="65" t="s">
         <v>1138</v>
       </c>
-      <c r="H21" s="65"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="65"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="75"/>
       <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="65"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="100"/>
       <c r="Q21" s="65"/>
       <c r="R21" s="65"/>
       <c r="S21" s="65"/>
       <c r="T21" s="65"/>
       <c r="U21" s="65"/>
       <c r="V21" s="65"/>
-    </row>
-    <row r="22" spans="1:22" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="W21" s="65"/>
+      <c r="X21" s="65"/>
+      <c r="Y21" s="65"/>
+      <c r="Z21" s="65"/>
+    </row>
+    <row r="22" spans="1:26" ht="38.25">
       <c r="A22" s="41"/>
       <c r="B22" s="41"/>
       <c r="C22" s="46" t="s">
         <v>1089</v>
       </c>
-      <c r="D22" s="77"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="77" t="s">
-        <v>1139</v>
-      </c>
-      <c r="G22" s="79" t="s">
-        <v>1140</v>
-      </c>
+      <c r="D22" s="46" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E22" s="46" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
       <c r="H22" s="77"/>
       <c r="I22" s="79"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="85"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="52"/>
+      <c r="J22" s="77" t="s">
+        <v>1139</v>
+      </c>
+      <c r="K22" s="79" t="s">
+        <v>1140</v>
+      </c>
+      <c r="L22" s="77"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="85"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="54"/>
       <c r="R22" s="52"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="45"/>
-    </row>
-    <row r="23" spans="1:22" ht="54" x14ac:dyDescent="0.25">
+      <c r="S22" s="55"/>
+      <c r="T22" s="52"/>
+      <c r="U22" s="52"/>
+      <c r="V22" s="52"/>
+      <c r="W22" s="45"/>
+      <c r="X22" s="45"/>
+      <c r="Y22" s="45"/>
+      <c r="Z22" s="45"/>
+    </row>
+    <row r="23" spans="1:26" ht="51">
       <c r="A23" s="41"/>
       <c r="B23" s="41"/>
       <c r="C23" s="46" t="s">
         <v>1141</v>
       </c>
-      <c r="D23" s="77"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="77" t="s">
-        <v>1142</v>
-      </c>
-      <c r="G23" s="79" t="s">
-        <v>1143</v>
-      </c>
+      <c r="D23" s="46" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E23" s="46" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
       <c r="H23" s="77"/>
       <c r="I23" s="79"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="79"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
+      <c r="J23" s="77" t="s">
+        <v>1142</v>
+      </c>
+      <c r="K23" s="79" t="s">
+        <v>1143</v>
+      </c>
+      <c r="L23" s="77"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="85"/>
+      <c r="P23" s="79"/>
+      <c r="Q23" s="54"/>
       <c r="R23" s="52"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="45"/>
-      <c r="V23" s="45"/>
-    </row>
-    <row r="24" spans="1:22" ht="81" x14ac:dyDescent="0.25">
+      <c r="S23" s="55"/>
+      <c r="T23" s="52"/>
+      <c r="U23" s="52"/>
+      <c r="V23" s="52"/>
+      <c r="W23" s="45"/>
+      <c r="X23" s="45"/>
+      <c r="Y23" s="45"/>
+      <c r="Z23" s="45"/>
+    </row>
+    <row r="24" spans="1:26" ht="76.5">
       <c r="A24" s="41"/>
       <c r="B24" s="41"/>
       <c r="C24" s="46" t="s">
         <v>1144</v>
       </c>
-      <c r="D24" s="77"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="77" t="s">
-        <v>1145</v>
-      </c>
-      <c r="G24" s="79" t="s">
-        <v>1146</v>
-      </c>
+      <c r="D24" s="46" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E24" s="46" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
       <c r="H24" s="77"/>
       <c r="I24" s="79"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="48" t="s">
+      <c r="J24" s="77" t="s">
+        <v>1145</v>
+      </c>
+      <c r="K24" s="79" t="s">
+        <v>1146</v>
+      </c>
+      <c r="L24" s="77"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="85"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="48" t="s">
         <v>1147</v>
       </c>
-      <c r="N24" s="53" t="s">
+      <c r="R24" s="53" t="s">
         <v>1148</v>
       </c>
-      <c r="O24" s="55" t="s">
+      <c r="S24" s="55" t="s">
         <v>1149</v>
       </c>
-      <c r="P24" s="59" t="s">
+      <c r="T24" s="59" t="s">
         <v>1068</v>
       </c>
-      <c r="Q24" s="40" t="s">
+      <c r="U24" s="40" t="s">
         <v>1069</v>
       </c>
-      <c r="R24" s="40" t="s">
+      <c r="V24" s="40" t="s">
         <v>1070</v>
       </c>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-    </row>
-    <row r="25" spans="1:22" ht="27" x14ac:dyDescent="0.25">
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+    </row>
+    <row r="25" spans="1:26" ht="25.5">
       <c r="A25" s="41"/>
       <c r="B25" s="41"/>
       <c r="C25" s="46" t="s">
         <v>1150</v>
       </c>
-      <c r="D25" s="77"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="77" t="s">
-        <v>1151</v>
-      </c>
-      <c r="G25" s="79" t="s">
-        <v>1152</v>
-      </c>
+      <c r="D25" s="46" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E25" s="46" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
       <c r="H25" s="77"/>
       <c r="I25" s="79"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="85"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="48" t="s">
+      <c r="J25" s="77" t="s">
+        <v>1151</v>
+      </c>
+      <c r="K25" s="79" t="s">
+        <v>1152</v>
+      </c>
+      <c r="L25" s="77"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="85"/>
+      <c r="P25" s="79"/>
+      <c r="Q25" s="48" t="s">
         <v>1074</v>
       </c>
-      <c r="N25" s="53" t="s">
+      <c r="R25" s="53" t="s">
         <v>1075</v>
       </c>
-      <c r="O25" s="48" t="s">
+      <c r="S25" s="48" t="s">
         <v>1076</v>
       </c>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-    </row>
-    <row r="26" spans="1:22" ht="162" x14ac:dyDescent="0.25">
+      <c r="T25" s="51"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+    </row>
+    <row r="26" spans="1:26" ht="153">
       <c r="A26" s="109" t="s">
         <v>1153</v>
       </c>
       <c r="B26" s="41"/>
       <c r="C26" s="46"/>
-      <c r="D26" s="65" t="s">
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="65" t="s">
         <v>1154</v>
       </c>
-      <c r="E26" s="65" t="s">
+      <c r="I26" s="65" t="s">
         <v>1155</v>
       </c>
-      <c r="F26" s="65" t="s">
+      <c r="J26" s="65" t="s">
         <v>1156</v>
       </c>
-      <c r="G26" s="65" t="s">
+      <c r="K26" s="65" t="s">
         <v>1157</v>
       </c>
-      <c r="H26" s="65"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="95"/>
-      <c r="L26" s="100"/>
-      <c r="M26" s="65"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="75"/>
       <c r="N26" s="65"/>
-      <c r="O26" s="65"/>
-      <c r="P26" s="65"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="100"/>
       <c r="Q26" s="65"/>
       <c r="R26" s="65"/>
       <c r="S26" s="65"/>
       <c r="T26" s="65"/>
       <c r="U26" s="65"/>
       <c r="V26" s="65"/>
-    </row>
-    <row r="27" spans="1:22" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="W26" s="65"/>
+      <c r="X26" s="65"/>
+      <c r="Y26" s="65"/>
+      <c r="Z26" s="65"/>
+    </row>
+    <row r="27" spans="1:26" ht="38.25">
       <c r="A27" s="57"/>
       <c r="B27" s="57"/>
       <c r="C27" s="46" t="s">
         <v>1158</v>
       </c>
-      <c r="D27" s="84"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="84" t="s">
-        <v>1159</v>
-      </c>
-      <c r="G27" s="83" t="s">
-        <v>1160</v>
-      </c>
+      <c r="D27" s="165"/>
+      <c r="E27" s="165"/>
+      <c r="F27" s="165"/>
+      <c r="G27" s="165"/>
       <c r="H27" s="84"/>
       <c r="I27" s="83"/>
-      <c r="J27" s="84"/>
-      <c r="K27" s="98"/>
-      <c r="L27" s="79"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
+      <c r="J27" s="84" t="s">
+        <v>1159</v>
+      </c>
+      <c r="K27" s="83" t="s">
+        <v>1160</v>
+      </c>
+      <c r="L27" s="84"/>
+      <c r="M27" s="83"/>
+      <c r="N27" s="84"/>
+      <c r="O27" s="98"/>
+      <c r="P27" s="79"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
-    </row>
-    <row r="28" spans="1:22" ht="162" x14ac:dyDescent="0.25">
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+    </row>
+    <row r="28" spans="1:26" ht="165.75">
       <c r="A28" s="108" t="s">
         <v>1161</v>
       </c>
       <c r="B28" s="41"/>
       <c r="C28" s="46"/>
-      <c r="D28" s="65" t="s">
+      <c r="D28" s="46" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="65" t="s">
         <v>1162</v>
       </c>
-      <c r="E28" s="65" t="s">
+      <c r="I28" s="65" t="s">
         <v>1163</v>
       </c>
-      <c r="F28" s="65" t="s">
+      <c r="J28" s="65" t="s">
         <v>1164</v>
       </c>
-      <c r="G28" s="65" t="s">
+      <c r="K28" s="65" t="s">
         <v>1165</v>
       </c>
-      <c r="H28" s="65"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="95"/>
-      <c r="L28" s="100"/>
-      <c r="M28" s="65"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="75"/>
       <c r="N28" s="65"/>
-      <c r="O28" s="65"/>
-      <c r="P28" s="65"/>
+      <c r="O28" s="95"/>
+      <c r="P28" s="100"/>
       <c r="Q28" s="65"/>
       <c r="R28" s="65"/>
       <c r="S28" s="65"/>
       <c r="T28" s="65"/>
       <c r="U28" s="65"/>
       <c r="V28" s="65"/>
-    </row>
-    <row r="29" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W28" s="65"/>
+      <c r="X28" s="65"/>
+      <c r="Y28" s="65"/>
+      <c r="Z28" s="65"/>
+    </row>
+    <row r="29" spans="1:26" ht="39.6" customHeight="1">
       <c r="A29" s="92"/>
       <c r="B29" s="92"/>
       <c r="C29" s="67" t="s">
         <v>1166</v>
       </c>
-      <c r="D29" s="84"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="127" t="s">
-        <v>1167</v>
-      </c>
-      <c r="G29" s="133" t="s">
-        <v>1168</v>
-      </c>
+      <c r="D29" s="46" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E29" s="166" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F29" s="166"/>
+      <c r="G29" s="166"/>
       <c r="H29" s="84"/>
       <c r="I29" s="79"/>
-      <c r="J29" s="84"/>
-      <c r="K29" s="98"/>
-      <c r="L29" s="79"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
+      <c r="J29" s="127" t="s">
+        <v>1167</v>
+      </c>
+      <c r="K29" s="133" t="s">
+        <v>1168</v>
+      </c>
+      <c r="L29" s="84"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="84"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="79"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
-    </row>
-    <row r="30" spans="1:22" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+    </row>
+    <row r="30" spans="1:26" ht="38.25">
       <c r="A30" s="92"/>
       <c r="B30" s="92"/>
       <c r="C30" s="67" t="s">
         <v>1169</v>
       </c>
-      <c r="D30" s="84"/>
-      <c r="E30" s="125"/>
-      <c r="F30" s="128" t="s">
+      <c r="D30" s="46" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E30" s="166" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F30" s="166"/>
+      <c r="G30" s="166"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="125"/>
+      <c r="J30" s="128" t="s">
         <v>1170</v>
       </c>
-      <c r="G30" s="129" t="s">
+      <c r="K30" s="129" t="s">
         <v>1171</v>
       </c>
-      <c r="H30" s="132"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="84"/>
-      <c r="K30" s="98"/>
-      <c r="L30" s="79"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
+      <c r="L30" s="132"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="84"/>
+      <c r="O30" s="98"/>
+      <c r="P30" s="79"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
-    </row>
-    <row r="31" spans="1:22" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+    </row>
+    <row r="31" spans="1:26" ht="38.25">
       <c r="A31" s="118"/>
       <c r="B31" s="92" t="s">
         <v>1100</v>
@@ -15472,39 +15652,47 @@
       <c r="C31" s="67" t="s">
         <v>1172</v>
       </c>
-      <c r="D31" s="84" t="s">
+      <c r="D31" s="46" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E31" s="166" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F31" s="166"/>
+      <c r="G31" s="166"/>
+      <c r="H31" s="84" t="s">
         <v>1173</v>
       </c>
-      <c r="E31" s="125" t="s">
+      <c r="I31" s="125" t="s">
         <v>1174</v>
       </c>
-      <c r="F31" s="128" t="s">
+      <c r="J31" s="128" t="s">
         <v>1175</v>
       </c>
-      <c r="G31" s="130" t="s">
+      <c r="K31" s="130" t="s">
         <v>1176</v>
       </c>
-      <c r="H31" s="126" t="s">
+      <c r="L31" s="126" t="s">
         <v>1084</v>
       </c>
-      <c r="I31" s="79" t="s">
+      <c r="M31" s="79" t="s">
         <v>1085</v>
       </c>
-      <c r="J31" s="84"/>
-      <c r="K31" s="98"/>
-      <c r="L31" s="79"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
+      <c r="N31" s="84"/>
+      <c r="O31" s="98"/>
+      <c r="P31" s="79"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
-    </row>
-    <row r="32" spans="1:22" ht="27" x14ac:dyDescent="0.25">
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+    </row>
+    <row r="32" spans="1:26" ht="25.5">
       <c r="A32" s="118"/>
       <c r="B32" s="92" t="s">
         <v>1100</v>
@@ -15512,77 +15700,93 @@
       <c r="C32" s="67" t="s">
         <v>1172</v>
       </c>
-      <c r="D32" s="84" t="s">
+      <c r="D32" s="46" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E32" s="166" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F32" s="166"/>
+      <c r="G32" s="166"/>
+      <c r="H32" s="84" t="s">
         <v>1177</v>
       </c>
-      <c r="E32" s="125" t="s">
+      <c r="I32" s="125" t="s">
         <v>1178</v>
       </c>
-      <c r="F32" s="128" t="s">
+      <c r="J32" s="128" t="s">
         <v>1179</v>
       </c>
-      <c r="G32" s="134" t="s">
+      <c r="K32" s="134" t="s">
         <v>1180</v>
       </c>
-      <c r="H32" s="126" t="s">
+      <c r="L32" s="126" t="s">
         <v>1084</v>
       </c>
-      <c r="I32" s="79" t="s">
+      <c r="M32" s="79" t="s">
         <v>1085</v>
       </c>
-      <c r="J32" s="84"/>
-      <c r="K32" s="98"/>
-      <c r="L32" s="79"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
+      <c r="N32" s="84"/>
+      <c r="O32" s="98"/>
+      <c r="P32" s="79"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
-    </row>
-    <row r="33" spans="1:22" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+    </row>
+    <row r="33" spans="1:26" ht="51">
       <c r="A33" s="92"/>
       <c r="B33" s="92"/>
       <c r="C33" s="67" t="s">
         <v>1181</v>
       </c>
-      <c r="D33" s="135" t="s">
+      <c r="D33" s="46" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E33" s="166" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F33" s="166"/>
+      <c r="G33" s="166"/>
+      <c r="H33" s="135" t="s">
         <v>1182</v>
       </c>
-      <c r="E33" s="136" t="s">
+      <c r="I33" s="136" t="s">
         <v>1183</v>
       </c>
-      <c r="F33" s="128" t="s">
+      <c r="J33" s="128" t="s">
         <v>1184</v>
       </c>
-      <c r="G33" s="130" t="s">
+      <c r="K33" s="130" t="s">
         <v>1185</v>
       </c>
-      <c r="H33" s="126" t="s">
+      <c r="L33" s="126" t="s">
         <v>1186</v>
       </c>
-      <c r="I33" s="137" t="s">
+      <c r="M33" s="137" t="s">
         <v>1187</v>
       </c>
-      <c r="J33" s="84"/>
-      <c r="K33" s="98"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
+      <c r="N33" s="84"/>
+      <c r="O33" s="98"/>
+      <c r="P33" s="79"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
-    </row>
-    <row r="34" spans="1:22" ht="54" x14ac:dyDescent="0.25">
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+    </row>
+    <row r="34" spans="1:26" ht="63.75">
       <c r="A34" s="118"/>
       <c r="B34" s="92" t="s">
         <v>1100</v>
@@ -15590,39 +15794,47 @@
       <c r="C34" s="67" t="s">
         <v>1188</v>
       </c>
-      <c r="D34" s="84" t="s">
+      <c r="D34" s="46" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E34" s="166" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F34" s="166"/>
+      <c r="G34" s="166"/>
+      <c r="H34" s="84" t="s">
         <v>1189</v>
       </c>
-      <c r="E34" s="125" t="s">
+      <c r="I34" s="125" t="s">
         <v>1190</v>
       </c>
-      <c r="F34" s="128" t="s">
+      <c r="J34" s="128" t="s">
         <v>1191</v>
       </c>
-      <c r="G34" s="130" t="s">
+      <c r="K34" s="130" t="s">
         <v>1192</v>
       </c>
-      <c r="H34" s="126" t="s">
+      <c r="L34" s="126" t="s">
         <v>1084</v>
       </c>
-      <c r="I34" s="79" t="s">
+      <c r="M34" s="79" t="s">
         <v>1085</v>
       </c>
-      <c r="J34" s="84"/>
-      <c r="K34" s="98"/>
-      <c r="L34" s="79"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
+      <c r="N34" s="84"/>
+      <c r="O34" s="98"/>
+      <c r="P34" s="79"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
-    </row>
-    <row r="35" spans="1:22" ht="54" x14ac:dyDescent="0.25">
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+    </row>
+    <row r="35" spans="1:26" ht="51">
       <c r="A35" s="92"/>
       <c r="B35" s="92" t="s">
         <v>1100</v>
@@ -15630,107 +15842,127 @@
       <c r="C35" s="67" t="s">
         <v>1172</v>
       </c>
-      <c r="D35" s="124" t="s">
+      <c r="D35" s="46" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E35" s="166" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F35" s="166"/>
+      <c r="G35" s="166"/>
+      <c r="H35" s="124" t="s">
         <v>1193</v>
       </c>
-      <c r="E35" s="131" t="s">
+      <c r="I35" s="131" t="s">
         <v>1194</v>
       </c>
-      <c r="F35" s="128" t="s">
+      <c r="J35" s="128" t="s">
         <v>1195</v>
       </c>
-      <c r="G35" s="130" t="s">
+      <c r="K35" s="130" t="s">
         <v>1196</v>
       </c>
-      <c r="H35" s="126" t="s">
+      <c r="L35" s="126" t="s">
         <v>1084</v>
       </c>
-      <c r="I35" s="79" t="s">
+      <c r="M35" s="79" t="s">
         <v>1085</v>
       </c>
-      <c r="J35" s="84"/>
-      <c r="K35" s="98"/>
-      <c r="L35" s="79"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
+      <c r="N35" s="84"/>
+      <c r="O35" s="98"/>
+      <c r="P35" s="79"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
-    </row>
-    <row r="36" spans="1:22" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+    </row>
+    <row r="36" spans="1:26" ht="38.25">
       <c r="A36" s="92"/>
       <c r="B36" s="92"/>
       <c r="C36" s="67" t="s">
         <v>1197</v>
       </c>
-      <c r="D36" s="135" t="s">
+      <c r="D36" s="46" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E36" s="166" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F36" s="166"/>
+      <c r="G36" s="166"/>
+      <c r="H36" s="135" t="s">
         <v>1198</v>
       </c>
-      <c r="E36" s="137" t="s">
+      <c r="I36" s="137" t="s">
         <v>1199</v>
       </c>
-      <c r="F36" s="84" t="s">
+      <c r="J36" s="84" t="s">
         <v>1200</v>
       </c>
-      <c r="G36" s="83" t="s">
+      <c r="K36" s="83" t="s">
         <v>1201</v>
       </c>
-      <c r="H36" s="84"/>
-      <c r="I36" s="79"/>
-      <c r="J36" s="84"/>
-      <c r="K36" s="98"/>
-      <c r="L36" s="79"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
+      <c r="L36" s="84"/>
+      <c r="M36" s="79"/>
+      <c r="N36" s="84"/>
+      <c r="O36" s="98"/>
+      <c r="P36" s="79"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
-    </row>
-    <row r="37" spans="1:22" ht="27" x14ac:dyDescent="0.25">
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+    </row>
+    <row r="37" spans="1:26" ht="25.5">
       <c r="A37" s="108" t="s">
         <v>1202</v>
       </c>
       <c r="B37" s="41"/>
       <c r="C37" s="46"/>
-      <c r="D37" s="65" t="s">
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="65" t="s">
         <v>1203</v>
       </c>
-      <c r="E37" s="75" t="s">
+      <c r="I37" s="75" t="s">
         <v>1204</v>
       </c>
-      <c r="F37" s="65" t="s">
+      <c r="J37" s="65" t="s">
         <v>1205</v>
       </c>
-      <c r="G37" s="65" t="s">
+      <c r="K37" s="65" t="s">
         <v>1206</v>
       </c>
-      <c r="H37" s="65"/>
-      <c r="I37" s="75"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="95"/>
-      <c r="L37" s="100"/>
-      <c r="M37" s="65"/>
+      <c r="L37" s="65"/>
+      <c r="M37" s="75"/>
       <c r="N37" s="65"/>
-      <c r="O37" s="65"/>
-      <c r="P37" s="65"/>
+      <c r="O37" s="95"/>
+      <c r="P37" s="100"/>
       <c r="Q37" s="65"/>
       <c r="R37" s="65"/>
       <c r="S37" s="65"/>
       <c r="T37" s="65"/>
       <c r="U37" s="65"/>
       <c r="V37" s="65"/>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W37" s="65"/>
+      <c r="X37" s="65"/>
+      <c r="Y37" s="65"/>
+      <c r="Z37" s="65"/>
+    </row>
+    <row r="38" spans="1:26">
       <c r="A38" s="92"/>
       <c r="B38" s="92" t="s">
         <v>1100</v>
@@ -15738,201 +15970,225 @@
       <c r="C38" s="67" t="s">
         <v>1083</v>
       </c>
-      <c r="D38" s="84"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="77" t="s">
+      <c r="D38" s="166"/>
+      <c r="E38" s="166"/>
+      <c r="F38" s="166"/>
+      <c r="G38" s="166"/>
+      <c r="H38" s="84"/>
+      <c r="I38" s="79"/>
+      <c r="J38" s="84"/>
+      <c r="K38" s="79"/>
+      <c r="L38" s="77" t="s">
         <v>1084</v>
       </c>
-      <c r="I38" s="79" t="s">
+      <c r="M38" s="79" t="s">
         <v>1085</v>
       </c>
-      <c r="J38" s="84"/>
-      <c r="K38" s="98"/>
-      <c r="L38" s="79"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
+      <c r="N38" s="84"/>
+      <c r="O38" s="98"/>
+      <c r="P38" s="79"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
-    </row>
-    <row r="39" spans="1:22" ht="135" x14ac:dyDescent="0.25">
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
+    </row>
+    <row r="39" spans="1:26" ht="127.5">
       <c r="A39" s="108" t="s">
         <v>1207</v>
       </c>
       <c r="B39" s="41"/>
       <c r="C39" s="46"/>
-      <c r="D39" s="65" t="s">
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="65" t="s">
         <v>1208</v>
       </c>
-      <c r="E39" s="75" t="s">
+      <c r="I39" s="75" t="s">
         <v>1209</v>
       </c>
-      <c r="F39" s="65" t="s">
+      <c r="J39" s="65" t="s">
         <v>1210</v>
       </c>
-      <c r="G39" s="65" t="s">
+      <c r="K39" s="65" t="s">
         <v>1211</v>
       </c>
-      <c r="H39" s="65"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="65"/>
-      <c r="K39" s="95"/>
-      <c r="L39" s="100"/>
-      <c r="M39" s="65"/>
+      <c r="L39" s="65"/>
+      <c r="M39" s="75"/>
       <c r="N39" s="65"/>
-      <c r="O39" s="65"/>
-      <c r="P39" s="65" t="s">
+      <c r="O39" s="95"/>
+      <c r="P39" s="100"/>
+      <c r="Q39" s="65"/>
+      <c r="R39" s="65"/>
+      <c r="S39" s="65"/>
+      <c r="T39" s="65" t="s">
         <v>1212</v>
       </c>
-      <c r="Q39" s="65" t="s">
+      <c r="U39" s="65" t="s">
         <v>1213</v>
       </c>
-      <c r="R39" s="65" t="s">
+      <c r="V39" s="65" t="s">
         <v>1214</v>
       </c>
-      <c r="S39" s="65"/>
-      <c r="T39" s="65"/>
-      <c r="U39" s="65"/>
-      <c r="V39" s="65"/>
-    </row>
-    <row r="40" spans="1:22" ht="108.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W39" s="65"/>
+      <c r="X39" s="65"/>
+      <c r="Y39" s="65"/>
+      <c r="Z39" s="65"/>
+    </row>
+    <row r="40" spans="1:26" ht="108.6" customHeight="1">
       <c r="A40" s="57"/>
       <c r="B40" s="57"/>
       <c r="C40" s="60" t="s">
         <v>1166</v>
       </c>
-      <c r="D40" s="89"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="90" t="s">
-        <v>1215</v>
-      </c>
-      <c r="G40" s="79" t="s">
-        <v>1216</v>
-      </c>
+      <c r="D40" s="167"/>
+      <c r="E40" s="167"/>
+      <c r="F40" s="167"/>
+      <c r="G40" s="167"/>
       <c r="H40" s="89"/>
       <c r="I40" s="79"/>
-      <c r="J40" s="89"/>
-      <c r="K40" s="99"/>
-      <c r="L40" s="79"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="101"/>
-      <c r="Q40" s="69"/>
-      <c r="R40" s="69"/>
+      <c r="J40" s="90" t="s">
+        <v>1215</v>
+      </c>
+      <c r="K40" s="79" t="s">
+        <v>1216</v>
+      </c>
+      <c r="L40" s="89"/>
+      <c r="M40" s="79"/>
+      <c r="N40" s="89"/>
+      <c r="O40" s="99"/>
+      <c r="P40" s="79"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
       <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
-    </row>
-    <row r="41" spans="1:22" ht="54" x14ac:dyDescent="0.25">
+      <c r="T40" s="101"/>
+      <c r="U40" s="69"/>
+      <c r="V40" s="69"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
+    </row>
+    <row r="41" spans="1:26" ht="51">
       <c r="A41" s="41" t="s">
         <v>1217</v>
       </c>
       <c r="B41" s="41"/>
       <c r="C41" s="46"/>
-      <c r="D41" s="65" t="s">
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="65" t="s">
         <v>1218</v>
       </c>
-      <c r="E41" s="75" t="s">
+      <c r="I41" s="75" t="s">
         <v>1219</v>
       </c>
-      <c r="F41" s="65" t="s">
+      <c r="J41" s="65" t="s">
         <v>1220</v>
       </c>
-      <c r="G41" s="93" t="s">
+      <c r="K41" s="93" t="s">
         <v>1221</v>
       </c>
-      <c r="H41" s="102"/>
-      <c r="I41" s="103"/>
-      <c r="J41" s="102"/>
-      <c r="K41" s="104"/>
-      <c r="L41" s="105"/>
-      <c r="M41" s="65"/>
-      <c r="N41" s="65"/>
-      <c r="O41" s="65"/>
-      <c r="P41" s="65"/>
+      <c r="L41" s="102"/>
+      <c r="M41" s="103"/>
+      <c r="N41" s="102"/>
+      <c r="O41" s="104"/>
+      <c r="P41" s="105"/>
       <c r="Q41" s="65"/>
       <c r="R41" s="65"/>
-      <c r="S41" s="107" t="s">
+      <c r="S41" s="65"/>
+      <c r="T41" s="65"/>
+      <c r="U41" s="65"/>
+      <c r="V41" s="65"/>
+      <c r="W41" s="107" t="s">
         <v>1222</v>
       </c>
-      <c r="T41" s="65" t="s">
+      <c r="X41" s="65" t="s">
         <v>1223</v>
       </c>
-      <c r="U41" s="65" t="s">
+      <c r="Y41" s="65" t="s">
         <v>1224</v>
       </c>
-      <c r="V41" s="65"/>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Z41" s="65"/>
+    </row>
+    <row r="42" spans="1:26">
       <c r="A42" s="57"/>
       <c r="B42" s="57" t="s">
         <v>1100</v>
       </c>
       <c r="C42" s="46"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="79"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="79"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
       <c r="H42" s="77"/>
       <c r="I42" s="79"/>
       <c r="J42" s="77"/>
-      <c r="K42" s="77"/>
-      <c r="L42" s="79"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
+      <c r="K42" s="79"/>
+      <c r="L42" s="77"/>
+      <c r="M42" s="79"/>
+      <c r="N42" s="77"/>
+      <c r="O42" s="77"/>
+      <c r="P42" s="79"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
-    </row>
-    <row r="43" spans="1:22" ht="54" x14ac:dyDescent="0.25">
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
+    </row>
+    <row r="43" spans="1:26" ht="51">
       <c r="A43" s="57"/>
       <c r="B43" s="57"/>
       <c r="C43" s="46" t="s">
         <v>1225</v>
       </c>
-      <c r="D43" s="91" t="s">
+      <c r="D43" s="167"/>
+      <c r="E43" s="167"/>
+      <c r="F43" s="167"/>
+      <c r="G43" s="167"/>
+      <c r="H43" s="91" t="s">
         <v>1226</v>
       </c>
-      <c r="E43" s="79" t="s">
+      <c r="I43" s="79" t="s">
         <v>1227</v>
       </c>
-      <c r="F43" s="94" t="s">
+      <c r="J43" s="94" t="s">
         <v>1228</v>
       </c>
-      <c r="G43" s="79" t="s">
+      <c r="K43" s="79" t="s">
         <v>1229</v>
       </c>
-      <c r="H43" s="106"/>
-      <c r="I43" s="79"/>
-      <c r="J43" s="106"/>
-      <c r="K43" s="106"/>
-      <c r="L43" s="79"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
+      <c r="L43" s="106"/>
+      <c r="M43" s="79"/>
+      <c r="N43" s="106"/>
+      <c r="O43" s="106"/>
+      <c r="P43" s="79"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
-    </row>
-    <row r="44" spans="1:22" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
+    </row>
+    <row r="44" spans="1:26" ht="63.75">
       <c r="A44" s="57"/>
       <c r="B44" s="57" t="s">
         <v>1082</v>
@@ -15940,105 +16196,117 @@
       <c r="C44" s="46" t="s">
         <v>1230</v>
       </c>
-      <c r="D44" s="119" t="s">
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="119" t="s">
         <v>1078</v>
       </c>
-      <c r="E44" s="120" t="s">
+      <c r="I44" s="120" t="s">
         <v>1231</v>
       </c>
-      <c r="F44" s="86" t="s">
+      <c r="J44" s="86" t="s">
         <v>1232</v>
       </c>
-      <c r="G44" s="79" t="s">
+      <c r="K44" s="79" t="s">
         <v>1233</v>
       </c>
-      <c r="H44" s="77" t="s">
+      <c r="L44" s="77" t="s">
         <v>1084</v>
       </c>
-      <c r="I44" s="79" t="s">
+      <c r="M44" s="79" t="s">
         <v>1085</v>
       </c>
-      <c r="J44" s="86"/>
-      <c r="K44" s="86"/>
-      <c r="L44" s="79"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
+      <c r="N44" s="86"/>
+      <c r="O44" s="86"/>
+      <c r="P44" s="79"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
-    </row>
-    <row r="45" spans="1:22" ht="54" x14ac:dyDescent="0.25">
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+    </row>
+    <row r="45" spans="1:26" ht="63.75">
       <c r="A45" s="57"/>
       <c r="B45" s="57"/>
       <c r="C45" s="46" t="s">
         <v>1234</v>
       </c>
-      <c r="D45" s="77"/>
-      <c r="E45" s="80"/>
-      <c r="F45" s="77" t="s">
-        <v>1235</v>
-      </c>
-      <c r="G45" s="80" t="s">
-        <v>1236</v>
-      </c>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
       <c r="H45" s="77"/>
       <c r="I45" s="80"/>
-      <c r="J45" s="77"/>
-      <c r="K45" s="77"/>
-      <c r="L45" s="80"/>
-      <c r="M45" s="121" t="s">
+      <c r="J45" s="77" t="s">
+        <v>1235</v>
+      </c>
+      <c r="K45" s="80" t="s">
+        <v>1236</v>
+      </c>
+      <c r="L45" s="77"/>
+      <c r="M45" s="80"/>
+      <c r="N45" s="77"/>
+      <c r="O45" s="77"/>
+      <c r="P45" s="80"/>
+      <c r="Q45" s="121" t="s">
         <v>1097</v>
       </c>
-      <c r="N45" s="122" t="s">
+      <c r="R45" s="122" t="s">
         <v>1098</v>
       </c>
-      <c r="O45" s="123" t="s">
+      <c r="S45" s="123" t="s">
         <v>1099</v>
       </c>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
-    </row>
-    <row r="46" spans="1:22" ht="27" x14ac:dyDescent="0.25">
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="2"/>
+    </row>
+    <row r="46" spans="1:26" ht="25.5">
       <c r="A46" s="57"/>
       <c r="B46" s="57"/>
       <c r="C46" s="46" t="s">
         <v>1237</v>
       </c>
-      <c r="D46" s="77"/>
-      <c r="E46" s="80"/>
-      <c r="F46" s="77" t="s">
-        <v>1238</v>
-      </c>
-      <c r="G46" s="80" t="s">
-        <v>1239</v>
-      </c>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
       <c r="H46" s="77"/>
       <c r="I46" s="80"/>
-      <c r="J46" s="77"/>
-      <c r="K46" s="77"/>
-      <c r="L46" s="80"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
+      <c r="J46" s="77" t="s">
+        <v>1238</v>
+      </c>
+      <c r="K46" s="80" t="s">
+        <v>1239</v>
+      </c>
+      <c r="L46" s="77"/>
+      <c r="M46" s="80"/>
+      <c r="N46" s="77"/>
+      <c r="O46" s="77"/>
+      <c r="P46" s="80"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
-    </row>
-    <row r="47" spans="1:22" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="2"/>
+    </row>
+    <row r="47" spans="1:26" ht="51">
       <c r="A47" s="57"/>
       <c r="B47" s="57" t="s">
         <v>1100</v>
@@ -16046,39 +16314,43 @@
       <c r="C47" s="46" t="s">
         <v>1240</v>
       </c>
-      <c r="D47" s="119" t="s">
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="119" t="s">
         <v>1102</v>
       </c>
-      <c r="E47" s="120" t="s">
+      <c r="I47" s="120" t="s">
         <v>1103</v>
       </c>
-      <c r="F47" s="77" t="s">
+      <c r="J47" s="77" t="s">
         <v>1241</v>
       </c>
-      <c r="G47" s="79" t="s">
+      <c r="K47" s="79" t="s">
         <v>1242</v>
       </c>
-      <c r="H47" s="77" t="s">
+      <c r="L47" s="77" t="s">
         <v>1084</v>
       </c>
-      <c r="I47" s="79" t="s">
+      <c r="M47" s="79" t="s">
         <v>1085</v>
       </c>
-      <c r="J47" s="77"/>
-      <c r="K47" s="85"/>
-      <c r="L47" s="79"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
+      <c r="N47" s="77"/>
+      <c r="O47" s="85"/>
+      <c r="P47" s="79"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
-    </row>
-    <row r="48" spans="1:22" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="W47" s="2"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="2"/>
+    </row>
+    <row r="48" spans="1:26" ht="38.25">
       <c r="A48" s="57"/>
       <c r="B48" s="57" t="s">
         <v>1100</v>
@@ -16086,39 +16358,43 @@
       <c r="C48" s="46" t="s">
         <v>1243</v>
       </c>
-      <c r="D48" s="119" t="s">
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="119" t="s">
         <v>1107</v>
       </c>
-      <c r="E48" s="120" t="s">
+      <c r="I48" s="120" t="s">
         <v>1108</v>
       </c>
-      <c r="F48" s="77" t="s">
+      <c r="J48" s="77" t="s">
         <v>1109</v>
       </c>
-      <c r="G48" s="79" t="s">
+      <c r="K48" s="79" t="s">
         <v>1110</v>
       </c>
-      <c r="H48" s="77" t="s">
+      <c r="L48" s="77" t="s">
         <v>1084</v>
       </c>
-      <c r="I48" s="79" t="s">
+      <c r="M48" s="79" t="s">
         <v>1085</v>
       </c>
-      <c r="J48" s="77"/>
-      <c r="K48" s="85"/>
-      <c r="L48" s="79"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
+      <c r="N48" s="77"/>
+      <c r="O48" s="85"/>
+      <c r="P48" s="79"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
-    </row>
-    <row r="49" spans="1:22" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
+    </row>
+    <row r="49" spans="1:26" ht="63.75">
       <c r="A49" s="57"/>
       <c r="B49" s="57" t="s">
         <v>1100</v>
@@ -16126,39 +16402,43 @@
       <c r="C49" s="46" t="s">
         <v>1244</v>
       </c>
-      <c r="D49" s="119" t="s">
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="119" t="s">
         <v>1112</v>
       </c>
-      <c r="E49" s="120" t="s">
+      <c r="I49" s="120" t="s">
         <v>1113</v>
       </c>
-      <c r="F49" s="77" t="s">
+      <c r="J49" s="77" t="s">
         <v>1245</v>
       </c>
-      <c r="G49" s="79" t="s">
+      <c r="K49" s="79" t="s">
         <v>1246</v>
       </c>
-      <c r="H49" s="77" t="s">
+      <c r="L49" s="77" t="s">
         <v>1084</v>
       </c>
-      <c r="I49" s="79" t="s">
+      <c r="M49" s="79" t="s">
         <v>1085</v>
       </c>
-      <c r="J49" s="77"/>
-      <c r="K49" s="85"/>
-      <c r="L49" s="79"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
+      <c r="N49" s="77"/>
+      <c r="O49" s="85"/>
+      <c r="P49" s="79"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
-    </row>
-    <row r="50" spans="1:22" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="2"/>
+    </row>
+    <row r="50" spans="1:26" ht="38.25">
       <c r="A50" s="57"/>
       <c r="B50" s="57" t="s">
         <v>1100</v>
@@ -16166,39 +16446,43 @@
       <c r="C50" s="46" t="s">
         <v>1244</v>
       </c>
-      <c r="D50" s="119" t="s">
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="119" t="s">
         <v>1116</v>
       </c>
-      <c r="E50" s="120" t="s">
+      <c r="I50" s="120" t="s">
         <v>1117</v>
       </c>
-      <c r="F50" s="77" t="s">
+      <c r="J50" s="77" t="s">
         <v>1247</v>
       </c>
-      <c r="G50" s="79" t="s">
+      <c r="K50" s="79" t="s">
         <v>1248</v>
       </c>
-      <c r="H50" s="77" t="s">
+      <c r="L50" s="77" t="s">
         <v>1084</v>
       </c>
-      <c r="I50" s="79" t="s">
+      <c r="M50" s="79" t="s">
         <v>1085</v>
       </c>
-      <c r="J50" s="77"/>
-      <c r="K50" s="85"/>
-      <c r="L50" s="79"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
+      <c r="N50" s="77"/>
+      <c r="O50" s="85"/>
+      <c r="P50" s="79"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
-    </row>
-    <row r="51" spans="1:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2"/>
+    </row>
+    <row r="51" spans="1:26" ht="39.950000000000003" customHeight="1">
       <c r="A51" s="57"/>
       <c r="B51" s="57" t="s">
         <v>1100</v>
@@ -16206,69 +16490,77 @@
       <c r="C51" s="46" t="s">
         <v>1244</v>
       </c>
-      <c r="D51" s="119" t="s">
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="119" t="s">
         <v>1120</v>
       </c>
-      <c r="E51" s="120" t="s">
+      <c r="I51" s="120" t="s">
         <v>1121</v>
       </c>
-      <c r="F51" s="77" t="s">
+      <c r="J51" s="77" t="s">
         <v>1122</v>
       </c>
-      <c r="G51" s="79" t="s">
+      <c r="K51" s="79" t="s">
         <v>1123</v>
       </c>
-      <c r="H51" s="77" t="s">
+      <c r="L51" s="77" t="s">
         <v>1084</v>
       </c>
-      <c r="I51" s="79" t="s">
+      <c r="M51" s="79" t="s">
         <v>1085</v>
       </c>
-      <c r="J51" s="77"/>
-      <c r="K51" s="85"/>
-      <c r="L51" s="79"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
+      <c r="N51" s="77"/>
+      <c r="O51" s="85"/>
+      <c r="P51" s="79"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V51" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
-  <mergeCells count="22">
+  <autoFilter ref="A1:Z51"/>
+  <mergeCells count="26">
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="S2:S3"/>
     <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
     <mergeCell ref="J2:J3"/>
+    <mergeCell ref="T2:T3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="S2:S3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="P7" r:id="rId1" display="https://ec.europa.eu/taxation_customs/dds2/eos/eori_validation.jsp?Lang=en&amp;EoriNumb=GR123456789&amp;Expand=true" xr:uid="{06908975-879D-452C-97F3-260E26A7395F}"/>
-    <hyperlink ref="P24" r:id="rId2" display="https://ec.europa.eu/taxation_customs/dds2/eos/eori_validation.jsp?Lang=en&amp;EoriNumb=GR123456789&amp;Expand=true" xr:uid="{3C882873-4923-49D8-9ADB-93070AED4881}"/>
-    <hyperlink ref="P20" r:id="rId3" display="https://login.gsis.gr/mylogin/login.jsp?bmctx=1DB55AB50C08F2B418903DE4EB7466AD47038BC455E39B9EA82B1EB28CE52BC6&amp;contextType=external&amp;username=string&amp;password=secure_string&amp;challenge_url=https%3A%2F%2Flogin.gsis.gr%2Fmylogin%2Flogin.jsp&amp;ssoCookie=disablehttponly&amp;request_id=8920397766596062419&amp;authn_try_count=0&amp;locale=en_US&amp;resource_url=https%253A%252F%252Fwww1.gsis.gr%252Ficisnet%252Fmyicisnet%252Fprotected%252Fmain.htm%253Fexecution%253De1s1" xr:uid="{8975689B-8565-46FC-870D-6DB9A4012579}"/>
-    <hyperlink ref="S20" r:id="rId4" xr:uid="{253B39FB-05A8-4E90-8E43-444895D18E1A}"/>
+    <hyperlink ref="T7" r:id="rId1" display="https://ec.europa.eu/taxation_customs/dds2/eos/eori_validation.jsp?Lang=en&amp;EoriNumb=GR123456789&amp;Expand=true"/>
+    <hyperlink ref="T24" r:id="rId2" display="https://ec.europa.eu/taxation_customs/dds2/eos/eori_validation.jsp?Lang=en&amp;EoriNumb=GR123456789&amp;Expand=true"/>
+    <hyperlink ref="T20" r:id="rId3" display="https://login.gsis.gr/mylogin/login.jsp?bmctx=1DB55AB50C08F2B418903DE4EB7466AD47038BC455E39B9EA82B1EB28CE52BC6&amp;contextType=external&amp;username=string&amp;password=secure_string&amp;challenge_url=https%3A%2F%2Flogin.gsis.gr%2Fmylogin%2Flogin.jsp&amp;ssoCookie=disablehttponly&amp;request_id=8920397766596062419&amp;authn_try_count=0&amp;locale=en_US&amp;resource_url=https%253A%252F%252Fwww1.gsis.gr%252Ficisnet%252Fmyicisnet%252Fprotected%252Fmain.htm%253Fexecution%253De1s1"/>
+    <hyperlink ref="W20" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -16281,13 +16573,13 @@
           <objectPr defaultSize="0" autoPict="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>314325</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>2200275</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>600075</xdr:rowOff>
@@ -16305,12 +16597,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16497,15 +16786,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C7354AF-45C3-4ABE-9306-B33138299E90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B080708-15F3-4B11-B7E8-C333FE45C4FF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16530,10 +16823,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B080708-15F3-4B11-B7E8-C333FE45C4FF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C7354AF-45C3-4ABE-9306-B33138299E90}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>